--- a/code/paleo_flow/data/sites_annual.xlsx
+++ b/code/paleo_flow/data/sites_annual.xlsx
@@ -81,106 +81,106 @@
     <t>https://waterdata.usgs.gov/nwis/uv?site_no=10011500</t>
   </si>
   <si>
+    <t>Logan River</t>
+  </si>
+  <si>
+    <t>Logan River, Utah 400 Year Streamflow Reconstructions</t>
+  </si>
+  <si>
+    <t>Allen, E.B.; Rittenour, T.M.; DeRose, R.J.; Bekker, M.F.; Kjelgren, R.; Buckley, B.M.</t>
+  </si>
+  <si>
+    <t>Eric B. Allen, Tammy M. Rittenour, R. Justin DeRose, Matthew F. Bekker, Roger Kjelgren, Brendan M. Buckley. 2013. A tree-ring based reconstruction of Logan River streamflow, northern Utah. Water Resources Research, 49(12), 8579-8588. doi: 10.1002/2013WR014273</t>
+  </si>
+  <si>
+    <t>https://www.ncdc.noaa.gov/paleo-search/study/16074</t>
+  </si>
+  <si>
+    <t>USGS 10109001</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/dv?referred_module=sw&amp;site_no=10109001</t>
+  </si>
+  <si>
+    <t>Weber River</t>
+  </si>
+  <si>
+    <t>Weber River, Utah 576 Year Streamflow Reconstruction</t>
+  </si>
+  <si>
+    <t>Bekker, M.F.; DeRose, R.J.; Buckley, B.M.; Kjelgren, R.; Gill, N.S.</t>
+  </si>
+  <si>
+    <t>Matthew F. Bekker, R. Justin DeRose, Brendan M. Buckley, Roger K. Kjelgren, and Nathan S. Gill. 2014. A 576-Year Weber River Streamflow Reconstruction from Tree Rings for Water Resource Risk Assessment in the Wasatch Front, Utah. Journal of the American Water Resources Association. . doi: 10.1111/jawr.12191</t>
+  </si>
+  <si>
+    <t>https://www.ncdc.noaa.gov/paleo-search/study/16416</t>
+  </si>
+  <si>
+    <t>USGS 10128500</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/uv?site_no=10128500</t>
+  </si>
+  <si>
+    <t>Yeruu River</t>
+  </si>
+  <si>
+    <t>CO, USA</t>
+  </si>
+  <si>
+    <t>Upper Rio Grande</t>
+  </si>
+  <si>
+    <t>Rio Grande 500 Year Riverflow and Precipitation Reconstructions</t>
+  </si>
+  <si>
+    <t>Woodhouse, C.A.; Meko, D.M.; Griffin, D.; Castro, C.L.</t>
+  </si>
+  <si>
+    <t>Woodhouse, C.A., D.M. Meko, D. Griffin, and C.L. Castro. 2013. Tree rings and multiseason drought variability in the lower Rio Grande Basin, USA. Water Resources Research, Vol. 49, Issue 2, pp. 844-850. DOI: 10.1002/wrcr.20098</t>
+  </si>
+  <si>
+    <t>https://www.ncdc.noaa.gov/paleo-search/study/14249</t>
+  </si>
+  <si>
+    <t>USGS 08220000</t>
+  </si>
+  <si>
+    <t>flow_08220000</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=08220000</t>
+  </si>
+  <si>
+    <t>flow_yeruu</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>yeruu</t>
+  </si>
+  <si>
+    <t>Yeruu River, Mongolia 300 Year Streamflow Reconstruction</t>
+  </si>
+  <si>
+    <t>Pederson, N.; Leland, C.; Nachin, B.; Hessl, A.E.; Bell, A.R.; Martin-Benito, D.; Saladyga, T.; Suran, B.; Brown, P.M.; Davi, N.K.</t>
+  </si>
+  <si>
+    <t>Pederson, N., C. Leland, B. Nachin, A.E. Hessl, A.R. Bell, D. Martin-Benito, T. Saladyga, B. Suran, P.M. Brown, N.K. Davi. 2012. Three centuries of shifting hydroclimatic regimes across the Mongolian Breadbasket. Agricultural and Forest Meteorology, DOI: 10.1016/j.agrformet.2012.07.003.</t>
+  </si>
+  <si>
+    <t>https://www.ncdc.noaa.gov/paleo-search/study/13542</t>
+  </si>
+  <si>
     <t>flow_10011500</t>
   </si>
   <si>
-    <t>Logan River</t>
-  </si>
-  <si>
-    <t>Logan River, Utah 400 Year Streamflow Reconstructions</t>
-  </si>
-  <si>
-    <t>Allen, E.B.; Rittenour, T.M.; DeRose, R.J.; Bekker, M.F.; Kjelgren, R.; Buckley, B.M.</t>
-  </si>
-  <si>
-    <t>Eric B. Allen, Tammy M. Rittenour, R. Justin DeRose, Matthew F. Bekker, Roger Kjelgren, Brendan M. Buckley. 2013. A tree-ring based reconstruction of Logan River streamflow, northern Utah. Water Resources Research, 49(12), 8579-8588. doi: 10.1002/2013WR014273</t>
-  </si>
-  <si>
-    <t>https://www.ncdc.noaa.gov/paleo-search/study/16074</t>
-  </si>
-  <si>
-    <t>USGS 10109001</t>
-  </si>
-  <si>
-    <t>https://waterdata.usgs.gov/nwis/dv?referred_module=sw&amp;site_no=10109001</t>
-  </si>
-  <si>
     <t>flow_10109001</t>
   </si>
   <si>
-    <t>Weber River</t>
-  </si>
-  <si>
-    <t>Weber River, Utah 576 Year Streamflow Reconstruction</t>
-  </si>
-  <si>
-    <t>Bekker, M.F.; DeRose, R.J.; Buckley, B.M.; Kjelgren, R.; Gill, N.S.</t>
-  </si>
-  <si>
-    <t>Matthew F. Bekker, R. Justin DeRose, Brendan M. Buckley, Roger K. Kjelgren, and Nathan S. Gill. 2014. A 576-Year Weber River Streamflow Reconstruction from Tree Rings for Water Resource Risk Assessment in the Wasatch Front, Utah. Journal of the American Water Resources Association. . doi: 10.1111/jawr.12191</t>
-  </si>
-  <si>
-    <t>https://www.ncdc.noaa.gov/paleo-search/study/16416</t>
-  </si>
-  <si>
-    <t>USGS 10128500</t>
-  </si>
-  <si>
-    <t>https://waterdata.usgs.gov/nwis/uv?site_no=10128500</t>
-  </si>
-  <si>
     <t>flow_10128500</t>
-  </si>
-  <si>
-    <t>Yeruu River</t>
-  </si>
-  <si>
-    <t>CO, USA</t>
-  </si>
-  <si>
-    <t>Upper Rio Grande</t>
-  </si>
-  <si>
-    <t>Rio Grande 500 Year Riverflow and Precipitation Reconstructions</t>
-  </si>
-  <si>
-    <t>Woodhouse, C.A.; Meko, D.M.; Griffin, D.; Castro, C.L.</t>
-  </si>
-  <si>
-    <t>Woodhouse, C.A., D.M. Meko, D. Griffin, and C.L. Castro. 2013. Tree rings and multiseason drought variability in the lower Rio Grande Basin, USA. Water Resources Research, Vol. 49, Issue 2, pp. 844-850. DOI: 10.1002/wrcr.20098</t>
-  </si>
-  <si>
-    <t>https://www.ncdc.noaa.gov/paleo-search/study/14249</t>
-  </si>
-  <si>
-    <t>USGS 08220000</t>
-  </si>
-  <si>
-    <t>flow_08220000</t>
-  </si>
-  <si>
-    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=08220000</t>
-  </si>
-  <si>
-    <t>flow_yeruu</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>yeruu</t>
-  </si>
-  <si>
-    <t>Yeruu River, Mongolia 300 Year Streamflow Reconstruction</t>
-  </si>
-  <si>
-    <t>Pederson, N.; Leland, C.; Nachin, B.; Hessl, A.E.; Bell, A.R.; Martin-Benito, D.; Saladyga, T.; Suran, B.; Brown, P.M.; Davi, N.K.</t>
-  </si>
-  <si>
-    <t>Pederson, N., C. Leland, B. Nachin, A.E. Hessl, A.R. Bell, D. Martin-Benito, T. Saladyga, B. Suran, P.M. Brown, N.K. Davi. 2012. Three centuries of shifting hydroclimatic regimes across the Mongolian Breadbasket. Agricultural and Forest Meteorology, DOI: 10.1016/j.agrformet.2012.07.003.</t>
-  </si>
-  <si>
-    <t>https://www.ncdc.noaa.gov/paleo-search/study/13542</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -570,37 +570,37 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>8220000</v>
       </c>
       <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,7 +635,7 @@
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,31 +646,31 @@
         <v>10109001</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,57 +681,57 @@
         <v>10128500</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" t="s">
         <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/code/paleo_flow/data/sites_annual.xlsx
+++ b/code/paleo_flow/data/sites_annual.xlsx
@@ -54,9 +54,6 @@
     <t>file_name</t>
   </si>
   <si>
-    <t>Utah, USA</t>
-  </si>
-  <si>
     <t>Bear River near Utah-Wyo</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>Yeruu River</t>
   </si>
   <si>
-    <t>CO, USA</t>
-  </si>
-  <si>
     <t>Upper Rio Grande</t>
   </si>
   <si>
@@ -181,6 +175,12 @@
   </si>
   <si>
     <t>flow_10128500</t>
+  </si>
+  <si>
+    <t>USA, CO</t>
+  </si>
+  <si>
+    <t>USA, UT</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -570,168 +570,168 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>8220000</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
         <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>10011500</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>10109001</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>10128500</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/code/paleo_flow/data/sites_annual.xlsx
+++ b/code/paleo_flow/data/sites_annual.xlsx
@@ -4,22 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="2565" windowWidth="20160" windowHeight="4515" tabRatio="500"/>
+    <workbookView xWindow="45" yWindow="90" windowWidth="20295" windowHeight="4875" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sites_annual" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="785">
   <si>
     <t>site_group</t>
   </si>
@@ -72,9 +67,6 @@
     <t>https://waterdata.usgs.gov/nwis/uv?site_no=10011500</t>
   </si>
   <si>
-    <t>Logan River</t>
-  </si>
-  <si>
     <t>Logan River, Utah 400 Year Streamflow Reconstructions</t>
   </si>
   <si>
@@ -165,18 +157,6 @@
     <t>riogrande2013</t>
   </si>
   <si>
-    <t>bear2015</t>
-  </si>
-  <si>
-    <t>logan2013</t>
-  </si>
-  <si>
-    <t>weber2014</t>
-  </si>
-  <si>
-    <t>yeruu2012</t>
-  </si>
-  <si>
     <t>lon</t>
   </si>
   <si>
@@ -387,9 +367,6 @@
     <t>White River near Watson, UT</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>http://www.treeflow.info/content/white-river-near-watson-ut</t>
   </si>
   <si>
@@ -1471,17 +1448,945 @@
   </si>
   <si>
     <t>riograndeotowinrcs..1.</t>
+  </si>
+  <si>
+    <t>white.x</t>
+  </si>
+  <si>
+    <t>Logan River (Local Model)</t>
+  </si>
+  <si>
+    <t>Logan River (Regional Model)</t>
+  </si>
+  <si>
+    <t>logan_local</t>
+  </si>
+  <si>
+    <t>logan_region</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>weber</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burdekin River Annual Runoff </t>
+  </si>
+  <si>
+    <t>Burdekin River</t>
+  </si>
+  <si>
+    <t>Isdale, P.J.; Stewart, B.J.; Tickle, K.S.; Lough, J.M.</t>
+  </si>
+  <si>
+    <t>Isdale, P.J., B.J. Stewart, K.S. Tickle, and J.M. Lough. 1998. Palaeohydrological variation in a tropical river catchment: a reconstruction using fluorescent bands in corals of the Great Barrier Reef, Australia.  The Holocene, 8: 1-8.</t>
+  </si>
+  <si>
+    <t>https://www.ncdc.noaa.gov/paleo/study/6391</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>burdekin</t>
+  </si>
+  <si>
+    <t>atuel</t>
+  </si>
+  <si>
+    <t>limay</t>
+  </si>
+  <si>
+    <t>neuquen</t>
+  </si>
+  <si>
+    <t>kherlen</t>
+  </si>
+  <si>
+    <t>selenge</t>
+  </si>
+  <si>
+    <t>yeruu</t>
+  </si>
+  <si>
+    <t>hurunui</t>
+  </si>
+  <si>
+    <t>white_summer</t>
+  </si>
+  <si>
+    <t>white.y</t>
+  </si>
+  <si>
+    <t>yellowstone</t>
+  </si>
+  <si>
+    <t>queensland</t>
+  </si>
+  <si>
+    <t>Kherlen River, Mongolia 385 Year Streamflow Reconstruction</t>
+  </si>
+  <si>
+    <t>Kherlen River</t>
+  </si>
+  <si>
+    <t>Davi, N.K.; Pederson, N.; Leland, C.; Nachin, B.; Suran, B.; Jacoby, G.C.</t>
+  </si>
+  <si>
+    <t>Nicole K. Davi, Neil Pederson, Caroline Leland, Baatarbileg Nachin, Byambagerel Suran, Gordon C. Jacoby. 2013. Is eastern Mongolia drying? A long-term perspective of a multidecadal trend. Water Resources Research, 49(1), 151-158. doi: 10.1029/2012WR011834</t>
+  </si>
+  <si>
+    <t>https://www.ncdc.noaa.gov/paleo/study/15445</t>
+  </si>
+  <si>
+    <t>Queensland 350-Year Rainfall and Riverflow Reconstructions</t>
+  </si>
+  <si>
+    <t>Lough, J.M. 2007. Tropical river flow and rainfall reconstructions from coral luminescence: Great Barrier Reef, Australia. Paleoceanography, Vol. 22, PA2218. doi:10.1029/2006PA001377</t>
+  </si>
+  <si>
+    <t>Queensland Rivers Sum</t>
+  </si>
+  <si>
+    <t>Lough, J.M.</t>
+  </si>
+  <si>
+    <t>https://www.ncdc.noaa.gov/paleo/study/15188</t>
+  </si>
+  <si>
+    <t>Missouri River Basin 533 Year Annual Streamflow Reconstructions</t>
+  </si>
+  <si>
+    <t>Ho, M.; Lall, U.; Cook, E.R.</t>
+  </si>
+  <si>
+    <t>Michelle Ho, Upmanu Lall, Edward R. Cook. 2016. Can a paleo-drought record be used to reconstruct streamflow? A case-study for the Missouri River Basin. Water Resources Research. doi: 10.1002/2015WR018444</t>
+  </si>
+  <si>
+    <t>https://www.ncdc.noaa.gov/paleo/study/19520</t>
+  </si>
+  <si>
+    <t>USA, AR</t>
+  </si>
+  <si>
+    <t>White River, Arkansas 963-Year Streamflow Reconstruction</t>
+  </si>
+  <si>
+    <t>White River (Summer)</t>
+  </si>
+  <si>
+    <t>Cleaveland, M.K.</t>
+  </si>
+  <si>
+    <t>M. K. Cleaveland. 2000. A 963-year reconstruction of summer (JJA) stream flow in the White River, Arkansas, USA, from tree-rings. The Holocene, 10(11), 33-41. doi: 10.1191/095968300666157027</t>
+  </si>
+  <si>
+    <t>https://www.ncdc.noaa.gov/paleo/study/6219</t>
+  </si>
+  <si>
+    <t>USGS 07077800</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=07077800&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>Cleaveland, M.K.; Stahle, D.W.</t>
+  </si>
+  <si>
+    <t>White River</t>
+  </si>
+  <si>
+    <t>White River, Arkansas 281 Year Flow Reconstruction</t>
+  </si>
+  <si>
+    <t>Malcolm K. Cleaveland and David W. Stahle. 1989. Tree ring analysis of surplus and deficit runoff in the White River, Arkansas. Water Resources Research, 25(6), 1391-1401. doi: 10.1029/WR025i006p01391</t>
+  </si>
+  <si>
+    <t>https://www.ncdc.noaa.gov/paleo/study/16460</t>
+  </si>
+  <si>
+    <t>Selenge River, Mongolia Streamflow Reconstruction</t>
+  </si>
+  <si>
+    <t>Selenge River</t>
+  </si>
+  <si>
+    <t>Davi, N., et al.  2006. Selenge River, Mongolia Streamflow Reconstruction. IGBP PAGES/World Data Center for Paleoclimatology Data Contribution Series # 2006-033. NOAA/NCDC Paleoclimatology Program, Boulder CO, USA.</t>
+  </si>
+  <si>
+    <t>Davi, N.</t>
+  </si>
+  <si>
+    <t>https://www.ncdc.noaa.gov/paleo/study/6273</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Norton, D.A., 1987. Reconstruction of past river flow and precipitation in Canterbury, New Zealand from analysis of tree-rings. Journal of Hydrology (New Zealand) 26, 161-174.</t>
+  </si>
+  <si>
+    <t>Norton, D.A.</t>
+  </si>
+  <si>
+    <t>Hurunui River</t>
+  </si>
+  <si>
+    <t>Hurunui River Reconstruction</t>
+  </si>
+  <si>
+    <t>Upper Yellowstone River Flow Reconstruction</t>
+  </si>
+  <si>
+    <t>USA, MT</t>
+  </si>
+  <si>
+    <t>Upper Yellowstone River</t>
+  </si>
+  <si>
+    <t>Graumlich, L.J., M.F.J. Pisaric, L.A. Waggoner, J.S. Littell, and J.C. King, Upper Yellowstone River Flow and Teleconnections with Pacific Basin Climate Variability During the Past Three Centuries, Climatic Change, July 2003, Volume 59, Issue 1-2, pp.245-262.</t>
+  </si>
+  <si>
+    <t>Graumlich, L.J.; M.F.J. Pisaric; L.A. Waggoner; J.S. Littell; J.C. King</t>
+  </si>
+  <si>
+    <t>USGS 06191500</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06191500&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>Atuel River Reconstruction</t>
+  </si>
+  <si>
+    <t>Atuel River</t>
+  </si>
+  <si>
+    <t>Limay River Reconstruction</t>
+  </si>
+  <si>
+    <t>Limay River</t>
+  </si>
+  <si>
+    <t>Neuquen River Reconstruction</t>
+  </si>
+  <si>
+    <t>Neuquen River</t>
+  </si>
+  <si>
+    <t>Shell Creek Above Shell Creek Reservoir Wy</t>
+  </si>
+  <si>
+    <t>South Fork Shoshone River Near Valley Wy</t>
+  </si>
+  <si>
+    <t>Little Bighorn River At State Line Nr Wyola Mt</t>
+  </si>
+  <si>
+    <t>Middle Fork Powder River Near Barnum Wy</t>
+  </si>
+  <si>
+    <t>North Fork Powder River Near Hazelton Wy</t>
+  </si>
+  <si>
+    <t>Bear Den Creek Nr Mandaree Nd</t>
+  </si>
+  <si>
+    <t>Little Beaver Creek Nr Marmarth Nd</t>
+  </si>
+  <si>
+    <t>Knife River At Manning Nd</t>
+  </si>
+  <si>
+    <t>Green River Nr New Hradec Nd</t>
+  </si>
+  <si>
+    <t>Cannonball River At Regent Nd</t>
+  </si>
+  <si>
+    <t>Cedar Creek Nr Haynes Nd</t>
+  </si>
+  <si>
+    <t>Cannonball River At Breien Nd</t>
+  </si>
+  <si>
+    <t>Beaver Creek At Linton Nd</t>
+  </si>
+  <si>
+    <t>Moreau R Near Whitehorse Sd</t>
+  </si>
+  <si>
+    <t>Battle Cr At Hermosa Sd</t>
+  </si>
+  <si>
+    <t>Castle Cr Above Deerfield Res Near Hill City Sd</t>
+  </si>
+  <si>
+    <t>Bad R Near Fort Pierre Sd</t>
+  </si>
+  <si>
+    <t>White R Near Kadoka Sd</t>
+  </si>
+  <si>
+    <t>Little White R Below White River Sd</t>
+  </si>
+  <si>
+    <t>White R Near Oacoma Sd</t>
+  </si>
+  <si>
+    <t>Ponca Creek At Anoka Nebr.</t>
+  </si>
+  <si>
+    <t>Ponca Creek At Verdel Nebr.</t>
+  </si>
+  <si>
+    <t>Plum Creek At Meadville Ne</t>
+  </si>
+  <si>
+    <t>Maple R At Nd-Sd State Line</t>
+  </si>
+  <si>
+    <t>Firesteel Cr Near Mount Vernon Sd</t>
+  </si>
+  <si>
+    <t>Little Vermillion R Near Salem Sd</t>
+  </si>
+  <si>
+    <t>Big Sioux R Near Watertown Sd</t>
+  </si>
+  <si>
+    <t>Omaha Cr At Homer Nebr</t>
+  </si>
+  <si>
+    <t>Michigan River Near Cameron Pass Co.</t>
+  </si>
+  <si>
+    <t>North Brush Creek Near Saratoga Wy</t>
+  </si>
+  <si>
+    <t>Rock Creek Ab King Canyon Canal Nr Arlington Wy</t>
+  </si>
+  <si>
+    <t>Middle Loup River At Dunning Nebr.</t>
+  </si>
+  <si>
+    <t>Mud Creek Near Sweetwater Ne</t>
+  </si>
+  <si>
+    <t>South Loup R At St. Michael Nebr.</t>
+  </si>
+  <si>
+    <t>Little Salt Creek Near Lincoln Nebr.</t>
+  </si>
+  <si>
+    <t>Rock Creek Near Ceresco Nebr.</t>
+  </si>
+  <si>
+    <t>Turkey C Nr Seneca Ks</t>
+  </si>
+  <si>
+    <t>Beaver C At Cedar Bluffs Ks</t>
+  </si>
+  <si>
+    <t>Beaver Creek Near Beaver City Nebr.</t>
+  </si>
+  <si>
+    <t>Prairie Dog C Ab Keith Sebelius Lake Ks</t>
+  </si>
+  <si>
+    <t>White Rock C Nr Burr Oak Ks</t>
+  </si>
+  <si>
+    <t>Salt C Nr Ada Ks</t>
+  </si>
+  <si>
+    <t>Chapman C Nr Chapman Ks</t>
+  </si>
+  <si>
+    <t>Black Vermillion R Nr Frankfort Ks</t>
+  </si>
+  <si>
+    <t>Mill C Nr Paxico Ks</t>
+  </si>
+  <si>
+    <t>Soldier C Nr Delia Ks</t>
+  </si>
+  <si>
+    <t>Soldier C Nr Topeka Ks</t>
+  </si>
+  <si>
+    <t>Stranger C Nr Tonganoxie Ks</t>
+  </si>
+  <si>
+    <t>Weldon River At Mill Grove Mo</t>
+  </si>
+  <si>
+    <t>Marais Des Cygnes R Nr Reading Ks</t>
+  </si>
+  <si>
+    <t>Dragoon C Nr Burlingame Ks</t>
+  </si>
+  <si>
+    <t>L Osage R At Fulton Ks</t>
+  </si>
+  <si>
+    <t>Turnback Creek Above Greenfield Mo</t>
+  </si>
+  <si>
+    <t>Pomme De Terre River Near Polk Mo</t>
+  </si>
+  <si>
+    <t>Lindley Creek Near Polk Mo</t>
+  </si>
+  <si>
+    <t>USGS 06278300</t>
+  </si>
+  <si>
+    <t>USGS 06280300</t>
+  </si>
+  <si>
+    <t>USGS 06289000</t>
+  </si>
+  <si>
+    <t>USGS 06309200</t>
+  </si>
+  <si>
+    <t>USGS 06311000</t>
+  </si>
+  <si>
+    <t>USGS 06332515</t>
+  </si>
+  <si>
+    <t>USGS 06335000</t>
+  </si>
+  <si>
+    <t>USGS 06339100</t>
+  </si>
+  <si>
+    <t>USGS 06344600</t>
+  </si>
+  <si>
+    <t>USGS 06350000</t>
+  </si>
+  <si>
+    <t>USGS 06352000</t>
+  </si>
+  <si>
+    <t>USGS 06354000</t>
+  </si>
+  <si>
+    <t>USGS 06354500</t>
+  </si>
+  <si>
+    <t>USGS 06360500</t>
+  </si>
+  <si>
+    <t>USGS 06406000</t>
+  </si>
+  <si>
+    <t>USGS 06409000</t>
+  </si>
+  <si>
+    <t>USGS 06441500</t>
+  </si>
+  <si>
+    <t>USGS 06447000</t>
+  </si>
+  <si>
+    <t>USGS 06450500</t>
+  </si>
+  <si>
+    <t>USGS 06452000</t>
+  </si>
+  <si>
+    <t>USGS 06453500</t>
+  </si>
+  <si>
+    <t>USGS 06453600</t>
+  </si>
+  <si>
+    <t>USGS 06462500</t>
+  </si>
+  <si>
+    <t>USGS 06471200</t>
+  </si>
+  <si>
+    <t>USGS 06477500</t>
+  </si>
+  <si>
+    <t>USGS 06478540</t>
+  </si>
+  <si>
+    <t>USGS 06479438</t>
+  </si>
+  <si>
+    <t>USGS 06601000</t>
+  </si>
+  <si>
+    <t>USGS 06614800</t>
+  </si>
+  <si>
+    <t>USGS 06622700</t>
+  </si>
+  <si>
+    <t>USGS 06632400</t>
+  </si>
+  <si>
+    <t>USGS 06775500</t>
+  </si>
+  <si>
+    <t>USGS 06783500</t>
+  </si>
+  <si>
+    <t>USGS 06784000</t>
+  </si>
+  <si>
+    <t>USGS 06803510</t>
+  </si>
+  <si>
+    <t>USGS 06803530</t>
+  </si>
+  <si>
+    <t>USGS 06814000</t>
+  </si>
+  <si>
+    <t>USGS 06846500</t>
+  </si>
+  <si>
+    <t>USGS 06847000</t>
+  </si>
+  <si>
+    <t>USGS 06847900</t>
+  </si>
+  <si>
+    <t>USGS 06853800</t>
+  </si>
+  <si>
+    <t>USGS 06876700</t>
+  </si>
+  <si>
+    <t>USGS 06878000</t>
+  </si>
+  <si>
+    <t>USGS 06885500</t>
+  </si>
+  <si>
+    <t>USGS 06888500</t>
+  </si>
+  <si>
+    <t>USGS 06889200</t>
+  </si>
+  <si>
+    <t>USGS 06889500</t>
+  </si>
+  <si>
+    <t>USGS 06892000</t>
+  </si>
+  <si>
+    <t>USGS 06899000</t>
+  </si>
+  <si>
+    <t>USGS 06910800</t>
+  </si>
+  <si>
+    <t>USGS 06911900</t>
+  </si>
+  <si>
+    <t>USGS 06917000</t>
+  </si>
+  <si>
+    <t>USGS 06918460</t>
+  </si>
+  <si>
+    <t>USGS 06921070</t>
+  </si>
+  <si>
+    <t>USGS 06921200</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06278300&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06280300&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06289000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06309200&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06311000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06332515&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06335000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06339100&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06344600&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06350000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06352000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06354000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06354500&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06360500&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06406000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06409000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06441500&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06447000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06450500&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06452000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06453500&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06453600&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06462500&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06471200&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06477500&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06478540&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06479438&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06601000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06614800&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06622700&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06632400&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06775500&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06783500&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06784000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06803510&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06803530&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06814000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06846500&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06847000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06847900&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06853800&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06876700&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06878000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06885500&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06888500&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06889200&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06889500&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06892000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06899000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06910800&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06911900&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06917000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06918460&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06921070&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06921200&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t>USA,  WY</t>
+  </si>
+  <si>
+    <t>USA,  MT</t>
+  </si>
+  <si>
+    <t>USA,  ND</t>
+  </si>
+  <si>
+    <t>USA,  SD</t>
+  </si>
+  <si>
+    <t>USA,  NE</t>
+  </si>
+  <si>
+    <t>USA,  CO</t>
+  </si>
+  <si>
+    <t>USA,  KS</t>
+  </si>
+  <si>
+    <t>USA,  MO</t>
+  </si>
+  <si>
+    <t>usgs_06278300</t>
+  </si>
+  <si>
+    <t>usgs_06280300</t>
+  </si>
+  <si>
+    <t>usgs_06289000</t>
+  </si>
+  <si>
+    <t>usgs_06309200</t>
+  </si>
+  <si>
+    <t>usgs_06311000</t>
+  </si>
+  <si>
+    <t>usgs_06332515</t>
+  </si>
+  <si>
+    <t>usgs_06335000</t>
+  </si>
+  <si>
+    <t>usgs_06339100</t>
+  </si>
+  <si>
+    <t>usgs_06344600</t>
+  </si>
+  <si>
+    <t>usgs_06350000</t>
+  </si>
+  <si>
+    <t>usgs_06352000</t>
+  </si>
+  <si>
+    <t>usgs_06354000</t>
+  </si>
+  <si>
+    <t>usgs_06354500</t>
+  </si>
+  <si>
+    <t>usgs_06360500</t>
+  </si>
+  <si>
+    <t>usgs_06406000</t>
+  </si>
+  <si>
+    <t>usgs_06409000</t>
+  </si>
+  <si>
+    <t>usgs_06441500</t>
+  </si>
+  <si>
+    <t>usgs_06447000</t>
+  </si>
+  <si>
+    <t>usgs_06450500</t>
+  </si>
+  <si>
+    <t>usgs_06452000</t>
+  </si>
+  <si>
+    <t>usgs_06453500</t>
+  </si>
+  <si>
+    <t>usgs_06453600</t>
+  </si>
+  <si>
+    <t>usgs_06462500</t>
+  </si>
+  <si>
+    <t>usgs_06471200</t>
+  </si>
+  <si>
+    <t>usgs_06477500</t>
+  </si>
+  <si>
+    <t>usgs_06478540</t>
+  </si>
+  <si>
+    <t>usgs_06479438</t>
+  </si>
+  <si>
+    <t>usgs_06601000</t>
+  </si>
+  <si>
+    <t>usgs_06614800</t>
+  </si>
+  <si>
+    <t>usgs_06622700</t>
+  </si>
+  <si>
+    <t>usgs_06632400</t>
+  </si>
+  <si>
+    <t>usgs_06775500</t>
+  </si>
+  <si>
+    <t>usgs_06783500</t>
+  </si>
+  <si>
+    <t>usgs_06784000</t>
+  </si>
+  <si>
+    <t>usgs_06803510</t>
+  </si>
+  <si>
+    <t>usgs_06803530</t>
+  </si>
+  <si>
+    <t>usgs_06814000</t>
+  </si>
+  <si>
+    <t>usgs_06846500</t>
+  </si>
+  <si>
+    <t>usgs_06847000</t>
+  </si>
+  <si>
+    <t>usgs_06847900</t>
+  </si>
+  <si>
+    <t>usgs_06853800</t>
+  </si>
+  <si>
+    <t>usgs_06876700</t>
+  </si>
+  <si>
+    <t>usgs_06878000</t>
+  </si>
+  <si>
+    <t>usgs_06885500</t>
+  </si>
+  <si>
+    <t>usgs_06888500</t>
+  </si>
+  <si>
+    <t>usgs_06889200</t>
+  </si>
+  <si>
+    <t>usgs_06889500</t>
+  </si>
+  <si>
+    <t>usgs_06892000</t>
+  </si>
+  <si>
+    <t>usgs_06899000</t>
+  </si>
+  <si>
+    <t>usgs_06910800</t>
+  </si>
+  <si>
+    <t>usgs_06911900</t>
+  </si>
+  <si>
+    <t>usgs_06917000</t>
+  </si>
+  <si>
+    <t>usgs_06918460</t>
+  </si>
+  <si>
+    <t>usgs_06921070</t>
+  </si>
+  <si>
+    <t>usgs_06921200</t>
+  </si>
+  <si>
+    <t>APS El Sosneado</t>
+  </si>
+  <si>
+    <t>Paso de Indio</t>
+  </si>
+  <si>
+    <t>arkansascanoncity_update</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1490,16 +2395,315 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1507,22 +2711,218 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42"/>
+    <cellStyle name="Note 2" xfId="43"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1814,10 +3214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G73" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" topLeftCell="E71" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1864,45 +3264,45 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2">
         <v>37.688611000000002</v>
@@ -1913,7 +3313,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1940,7 +3340,7 @@
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>483</v>
       </c>
       <c r="K3">
         <v>40.965277999999998</v>
@@ -1951,34 +3351,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>481</v>
       </c>
       <c r="K4">
         <v>41.744444000000001</v>
@@ -1989,294 +3389,294 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>480</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>482</v>
       </c>
       <c r="K5">
-        <v>40.737222000000003</v>
+        <v>41.744444000000001</v>
       </c>
       <c r="L5">
-        <v>-111.24722199999999</v>
+        <v>-111.78361099999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>484</v>
       </c>
       <c r="K6">
-        <v>50.102899999999998</v>
+        <v>40.737222000000003</v>
       </c>
       <c r="L6">
-        <v>106.90600000000001</v>
+        <v>-111.24722199999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>59</v>
-      </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>498</v>
       </c>
       <c r="K7">
-        <v>43.019416999999997</v>
+        <v>50.102899999999998</v>
       </c>
       <c r="L7">
-        <v>-110.118611</v>
+        <v>106.90600000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>67</v>
-      </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>43.027056000000002</v>
+        <v>43.019416999999997</v>
       </c>
       <c r="L8">
-        <v>-109.773528</v>
+        <v>-110.118611</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
         <v>62</v>
       </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K9">
-        <v>42.672499999999999</v>
+        <v>43.027056000000002</v>
       </c>
       <c r="L9">
-        <v>-109.421667</v>
+        <v>-109.773528</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K10">
-        <v>42.110889</v>
+        <v>42.672499999999999</v>
       </c>
       <c r="L10">
-        <v>-110.709417</v>
+        <v>-109.421667</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="K11">
-        <v>42.095806000000003</v>
+        <v>42.110889</v>
       </c>
       <c r="L11">
-        <v>-110.416083</v>
+        <v>-110.709417</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K12">
         <v>42.095806000000003</v>
@@ -2287,72 +3687,72 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K13">
-        <v>41.516388999999997</v>
+        <v>42.095806000000003</v>
       </c>
       <c r="L13">
-        <v>-109.44833300000001</v>
+        <v>-110.416083</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K14">
         <v>41.516388999999997</v>
@@ -2363,78 +3763,78 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>102</v>
+      <c r="F15" t="s">
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>40.908332999999999</v>
+        <v>41.516388999999997</v>
       </c>
       <c r="L15">
-        <v>-109.422222</v>
+        <v>-109.44833300000001</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K16">
-        <v>38.986111000000001</v>
+        <v>40.908332999999999</v>
       </c>
       <c r="L16">
-        <v>-110.15055599999999</v>
+        <v>-109.422222</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2442,113 +3842,113 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" t="s">
-        <v>113</v>
+        <v>88</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="J17" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="K17">
-        <v>40.549016999999999</v>
+        <v>38.986111000000001</v>
       </c>
       <c r="L17">
-        <v>-108.424322</v>
+        <v>-110.15055599999999</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K18">
-        <v>40.502777999999999</v>
+        <v>40.549016999999999</v>
       </c>
       <c r="L18">
-        <v>-108.03277799999999</v>
+        <v>-108.424322</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" t="s">
         <v>112</v>
       </c>
-      <c r="E19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" t="s">
-        <v>122</v>
-      </c>
       <c r="K19">
-        <v>39.978889000000002</v>
+        <v>40.502777999999999</v>
       </c>
       <c r="L19">
-        <v>-109.178056</v>
+        <v>-108.03277799999999</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2556,540 +3956,546 @@
         <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
       <c r="K20">
-        <v>39.893028000000001</v>
+        <v>39.978889000000002</v>
       </c>
       <c r="L20">
-        <v>-105.76475000000001</v>
+        <v>-109.178056</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J21" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K21">
-        <v>40.085278000000002</v>
+        <v>39.893028000000001</v>
       </c>
       <c r="L21">
-        <v>-105.954722</v>
+        <v>-105.76475000000001</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" t="s">
         <v>128</v>
       </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J22" t="s">
-        <v>140</v>
-      </c>
       <c r="K22">
-        <v>40.145833000000003</v>
+        <v>40.085278000000002</v>
       </c>
       <c r="L22">
-        <v>-105.93944399999999</v>
+        <v>-105.954722</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="J23" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K23">
-        <v>40.120832999999998</v>
+        <v>40.145833000000003</v>
       </c>
       <c r="L23">
-        <v>-105.9</v>
+        <v>-105.93944399999999</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>138</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>411</v>
+        <v>142</v>
       </c>
       <c r="J24" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="K24">
-        <v>40.083333000000003</v>
+        <v>40.120832999999998</v>
       </c>
       <c r="L24">
-        <v>-106.08750000000001</v>
+        <v>-105.9</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G25" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J25" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K25">
-        <v>39.833888999999999</v>
+        <v>40.083333000000003</v>
       </c>
       <c r="L25">
-        <v>-106.05583300000001</v>
+        <v>-106.08750000000001</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G26" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="J26" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K26">
-        <v>39.613889</v>
+        <v>39.833888999999999</v>
       </c>
       <c r="L26">
-        <v>-106.051389</v>
+        <v>-106.05583300000001</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G27" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="J27" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K27">
-        <v>39.831944</v>
+        <v>39.613889</v>
       </c>
       <c r="L27">
-        <v>-106.222222</v>
+        <v>-106.051389</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="D28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
       </c>
       <c r="F28" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="J28" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K28">
-        <v>40.036667000000001</v>
+        <v>39.831944</v>
       </c>
       <c r="L28">
-        <v>-106.43944399999999</v>
+        <v>-106.222222</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F29" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G29" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="J29" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K29">
-        <v>39.543610999999999</v>
+        <v>40.036667000000001</v>
       </c>
       <c r="L29">
-        <v>-107.328889</v>
+        <v>-106.43944399999999</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="F30" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G30" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="J30" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K30">
-        <v>39.549999999999997</v>
+        <v>39.543610999999999</v>
       </c>
       <c r="L30">
-        <v>-107.320278</v>
+        <v>-107.328889</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I31" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="F31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>411</v>
+      </c>
       <c r="J31" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="K31">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="L31">
+        <v>-107.320278</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" t="s">
-        <v>200</v>
-      </c>
-      <c r="G32" t="s">
-        <v>201</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>418</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I32" s="2"/>
       <c r="J32" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K32">
-        <v>38.983333000000002</v>
+        <v>38.529167000000001</v>
       </c>
       <c r="L32">
-        <v>-108.45</v>
+        <v>-107.64833299999999</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F33" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G33" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="J33" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K33">
-        <v>38.797221999999998</v>
+        <v>38.983333000000002</v>
       </c>
       <c r="L33">
-        <v>-109.194444</v>
+        <v>-108.45</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F34" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G34" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="J34" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K34">
-        <v>38.810555999999998</v>
+        <v>38.797221999999998</v>
       </c>
       <c r="L34">
-        <v>-109.292778</v>
+        <v>-109.194444</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3097,177 +4503,177 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>153</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" t="s">
+        <v>196</v>
       </c>
       <c r="F35" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G35" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="J35" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K35">
-        <v>37.279167000000001</v>
+        <v>38.810555999999998</v>
       </c>
       <c r="L35">
-        <v>-107.879722</v>
+        <v>-109.292778</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" t="s">
         <v>202</v>
       </c>
-      <c r="F36" t="s">
-        <v>209</v>
-      </c>
-      <c r="G36" t="s">
-        <v>210</v>
-      </c>
       <c r="H36" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="J36" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K36">
-        <v>36.801889000000003</v>
+        <v>37.279167000000001</v>
       </c>
       <c r="L36">
-        <v>-107.698639</v>
+        <v>-107.879722</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F37" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G37" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H37" t="s">
         <v>15</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="J37" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K37">
-        <v>37.150677999999999</v>
+        <v>36.801889000000003</v>
       </c>
       <c r="L37">
-        <v>-109.86668899999999</v>
+        <v>-107.698639</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F38" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G38" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H38" t="s">
         <v>15</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="J38" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K38">
-        <v>36.864722</v>
+        <v>37.150677999999999</v>
       </c>
       <c r="L38">
-        <v>-111.58750000000001</v>
+        <v>-109.86668899999999</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C39" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F39" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G39" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H39" t="s">
         <v>15</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="J39" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K39">
         <v>36.864722</v>
@@ -3278,697 +4684,697 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="C40" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="F40" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="G40" t="s">
-        <v>231</v>
+        <v>210</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="J40" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="K40">
-        <v>43.857778000000003</v>
+        <v>36.864722</v>
       </c>
       <c r="L40">
-        <v>-110.59</v>
+        <v>-111.58750000000001</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41" t="s">
+        <v>225</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="J41" t="s">
         <v>218</v>
       </c>
-      <c r="B41" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" t="s">
-        <v>221</v>
-      </c>
-      <c r="D41" t="s">
-        <v>229</v>
-      </c>
-      <c r="E41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G41" t="s">
-        <v>234</v>
-      </c>
-      <c r="H41" t="s">
-        <v>233</v>
-      </c>
-      <c r="I41" t="s">
-        <v>235</v>
-      </c>
-      <c r="J41" t="s">
-        <v>225</v>
-      </c>
       <c r="K41">
-        <v>43.350833000000002</v>
+        <v>43.857778000000003</v>
       </c>
       <c r="L41">
-        <v>-111.218333</v>
+        <v>-110.59</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B42" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" t="s">
         <v>222</v>
       </c>
-      <c r="C42" t="s">
-        <v>222</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
+        <v>226</v>
+      </c>
+      <c r="G42" t="s">
+        <v>228</v>
+      </c>
+      <c r="H42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I42" t="s">
         <v>229</v>
       </c>
-      <c r="E42" t="s">
-        <v>228</v>
-      </c>
-      <c r="F42" t="s">
-        <v>236</v>
-      </c>
-      <c r="G42" t="s">
-        <v>237</v>
-      </c>
-      <c r="H42" t="s">
-        <v>233</v>
-      </c>
-      <c r="I42" t="s">
-        <v>238</v>
-      </c>
       <c r="J42" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K42">
-        <v>43.612499999999997</v>
+        <v>43.350833000000002</v>
       </c>
       <c r="L42">
-        <v>-111.66</v>
+        <v>-111.218333</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" t="s">
         <v>223</v>
       </c>
-      <c r="C43" t="s">
-        <v>223</v>
-      </c>
-      <c r="D43" t="s">
-        <v>241</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>240</v>
+      <c r="E43" t="s">
+        <v>222</v>
       </c>
       <c r="F43" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G43" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>426</v>
+        <v>227</v>
+      </c>
+      <c r="I43" t="s">
+        <v>232</v>
       </c>
       <c r="J43" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="K43">
-        <v>45.608277999999999</v>
+        <v>43.612499999999997</v>
       </c>
       <c r="L43">
-        <v>-121.18991699999999</v>
+        <v>-111.66</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="D44" t="s">
-        <v>248</v>
-      </c>
-      <c r="E44" t="s">
-        <v>247</v>
+        <v>235</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="F44" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="G44" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="H44" t="s">
         <v>15</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="J44" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="K44">
-        <v>43.578611000000002</v>
+        <v>45.608277999999999</v>
       </c>
       <c r="L44">
-        <v>-109.75916700000001</v>
+        <v>-121.18991699999999</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" t="s">
+        <v>242</v>
+      </c>
+      <c r="E45" t="s">
+        <v>241</v>
+      </c>
+      <c r="F45" t="s">
+        <v>243</v>
+      </c>
+      <c r="G45" t="s">
         <v>244</v>
       </c>
-      <c r="C45" t="s">
-        <v>244</v>
-      </c>
-      <c r="D45" t="s">
-        <v>248</v>
-      </c>
-      <c r="E45" t="s">
-        <v>247</v>
-      </c>
-      <c r="F45" t="s">
-        <v>251</v>
-      </c>
-      <c r="G45" t="s">
-        <v>252</v>
-      </c>
       <c r="H45" t="s">
         <v>15</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="J45" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K45">
-        <v>42.716667000000001</v>
+        <v>43.578611000000002</v>
       </c>
       <c r="L45">
-        <v>-108.64277800000001</v>
+        <v>-109.75916700000001</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C46" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>241</v>
       </c>
       <c r="F46" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="G46" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="H46" t="s">
         <v>15</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="J46" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="K46">
-        <v>40.664444000000003</v>
+        <v>42.716667000000001</v>
       </c>
       <c r="L46">
-        <v>-105.223889</v>
+        <v>-108.64277800000001</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C47" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F47" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G47" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H47" t="s">
         <v>15</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="J47" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K47">
-        <v>40.421666999999999</v>
+        <v>40.664444000000003</v>
       </c>
       <c r="L47">
-        <v>-105.226111</v>
+        <v>-105.223889</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C48" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F48" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G48" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H48" t="s">
         <v>15</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="J48" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K48">
-        <v>40.218055999999997</v>
+        <v>40.421666999999999</v>
       </c>
       <c r="L48">
-        <v>-105.259444</v>
+        <v>-105.226111</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C49" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="F49" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G49" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H49" t="s">
         <v>15</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="J49" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K49">
-        <v>40.006388999999999</v>
+        <v>40.218055999999997</v>
       </c>
       <c r="L49">
-        <v>-105.33027800000001</v>
+        <v>-105.259444</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C50" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D50" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E50" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F50" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G50" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="H50" t="s">
         <v>15</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="J50" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K50">
-        <v>39.931111000000001</v>
+        <v>40.006388999999999</v>
       </c>
       <c r="L50">
-        <v>-105.295278</v>
+        <v>-105.33027800000001</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C51" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D51" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E51" t="s">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="F51" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G51" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H51" t="s">
         <v>15</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J51" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K51">
-        <v>39.753056000000001</v>
+        <v>39.931111000000001</v>
       </c>
       <c r="L51">
-        <v>-105.234722</v>
+        <v>-105.295278</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C52" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>271</v>
       </c>
       <c r="E52" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
       <c r="F52" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G52" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H52" t="s">
         <v>15</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="J52" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K52">
-        <v>39.408889000000002</v>
+        <v>39.753056000000001</v>
       </c>
       <c r="L52">
-        <v>-105.17527800000001</v>
+        <v>-105.234722</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C53" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D53" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F53" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G53" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H53" t="s">
         <v>15</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="J53" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K53">
-        <v>39.409166999999997</v>
+        <v>39.408889000000002</v>
       </c>
       <c r="L53">
-        <v>-105.169444</v>
+        <v>-105.17527800000001</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C54" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F54" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G54" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H54" t="s">
         <v>15</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J54" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K54">
-        <v>39.209167000000001</v>
+        <v>39.409166999999997</v>
       </c>
       <c r="L54">
-        <v>-105.267222</v>
+        <v>-105.169444</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>291</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="C55" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="D55" t="s">
-        <v>460</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
-        <v>319</v>
+        <v>121</v>
       </c>
       <c r="F55" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="G55" t="s">
-        <v>451</v>
+        <v>284</v>
       </c>
       <c r="H55" t="s">
-        <v>442</v>
+        <v>15</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="J55" t="s">
-        <v>482</v>
+        <v>264</v>
+      </c>
+      <c r="K55">
+        <v>39.209167000000001</v>
+      </c>
+      <c r="L55">
+        <v>-105.267222</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B56" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C56" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D56" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E56" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F56" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G56" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H56" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="J56" t="s">
-        <v>307</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B57" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C57" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D57" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E57" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F57" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G57" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H57" t="s">
-        <v>442</v>
-      </c>
-      <c r="I57" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="J57" t="s">
-        <v>308</v>
-      </c>
-      <c r="K57">
-        <v>39.521999999999998</v>
-      </c>
-      <c r="L57">
-        <v>-121.547</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B58" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C58" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D58" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E58" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F58" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G58" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H58" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I58" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="J58" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K58">
         <v>39.521999999999998</v>
@@ -3979,731 +5385,737 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C59" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D59" t="s">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="E59" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F59" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G59" t="s">
-        <v>328</v>
+        <v>446</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="I59" t="s">
+        <v>448</v>
       </c>
       <c r="J59" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K59">
-        <v>35.628610999999999</v>
+        <v>39.521999999999998</v>
       </c>
       <c r="L59">
-        <v>-120.683333</v>
+        <v>-121.547</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C60" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D60" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E60" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F60" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G60" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H60" t="s">
         <v>15</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="J60" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K60">
-        <v>42.133333</v>
+        <v>35.628610999999999</v>
       </c>
       <c r="L60">
-        <v>-121.961111</v>
+        <v>-120.683333</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" t="s">
         <v>291</v>
       </c>
-      <c r="B61" t="s">
-        <v>298</v>
-      </c>
       <c r="C61" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D61" t="s">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="E61" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F61" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G61" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H61" t="s">
         <v>15</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J61" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="K61">
-        <v>40.724722</v>
+        <v>42.133333</v>
       </c>
       <c r="L61">
-        <v>-122.80111100000001</v>
+        <v>-121.961111</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B62" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C62" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D62" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E62" t="s">
-        <v>319</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>335</v>
+        <v>313</v>
+      </c>
+      <c r="F62" t="s">
+        <v>327</v>
       </c>
       <c r="G62" t="s">
-        <v>443</v>
+        <v>328</v>
       </c>
       <c r="H62" t="s">
-        <v>442</v>
-      </c>
-      <c r="I62" t="s">
-        <v>441</v>
+        <v>15</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="J62" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K62">
-        <v>39.235169999999997</v>
+        <v>40.724722</v>
       </c>
       <c r="L62">
-        <v>-121.27412</v>
+        <v>-122.80111100000001</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B63" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C63" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D63" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E63" t="s">
-        <v>319</v>
-      </c>
-      <c r="F63" t="s">
-        <v>336</v>
+        <v>313</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="G63" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="H63" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I63" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="J63" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K63">
-        <v>38.683</v>
+        <v>39.235169999999997</v>
       </c>
       <c r="L63">
-        <v>-121.18300000000001</v>
+        <v>-121.27412</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B64" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C64" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D64" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E64" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G64" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H64" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I64" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="J64" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K64">
-        <v>40.289000000000001</v>
+        <v>38.683</v>
       </c>
       <c r="L64">
-        <v>-122.18600000000001</v>
+        <v>-121.18300000000001</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B65" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C65" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D65" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E65" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F65" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G65" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="H65" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I65" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="J65" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K65">
-        <v>37.851999999999997</v>
+        <v>40.289000000000001</v>
       </c>
       <c r="L65">
-        <v>-120.637</v>
+        <v>-122.18600000000001</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B66" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C66" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D66" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E66" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F66" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G66" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H66" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I66" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="J66" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K66">
-        <v>37.665999999999997</v>
+        <v>37.851999999999997</v>
       </c>
       <c r="L66">
-        <v>-120.441</v>
+        <v>-120.637</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B67" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C67" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D67" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E67" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F67" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G67" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="H67" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I67" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="J67" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K67">
-        <v>37.521999999999998</v>
+        <v>37.665999999999997</v>
       </c>
       <c r="L67">
-        <v>-120.331</v>
+        <v>-120.441</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B68" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C68" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D68" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E68" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F68" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G68" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H68" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I68" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J68" t="s">
-        <v>479</v>
+        <v>312</v>
       </c>
       <c r="K68">
-        <v>36.984394000000002</v>
+        <v>37.521999999999998</v>
       </c>
       <c r="L68">
-        <v>-119.724312</v>
+        <v>-120.331</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B69" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C69" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D69" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E69" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F69" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G69" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="H69" t="s">
-        <v>442</v>
+        <v>436</v>
+      </c>
+      <c r="I69" t="s">
+        <v>453</v>
       </c>
       <c r="J69" t="s">
-        <v>478</v>
+        <v>473</v>
+      </c>
+      <c r="K69">
+        <v>36.984394000000002</v>
+      </c>
+      <c r="L69">
+        <v>-119.724312</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>164</v>
+        <v>285</v>
       </c>
       <c r="B70" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="C70" t="s">
-        <v>343</v>
+        <v>300</v>
+      </c>
+      <c r="D70" t="s">
+        <v>454</v>
+      </c>
+      <c r="E70" t="s">
+        <v>313</v>
       </c>
       <c r="F70" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="G70" t="s">
-        <v>349</v>
+        <v>444</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="J70" t="s">
-        <v>347</v>
-      </c>
-      <c r="K70">
-        <v>32.868333</v>
-      </c>
-      <c r="L70">
-        <v>-109.51055599999999</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B71" t="s">
+        <v>337</v>
+      </c>
+      <c r="C71" t="s">
+        <v>337</v>
+      </c>
+      <c r="F71" t="s">
         <v>344</v>
       </c>
-      <c r="C71" t="s">
-        <v>344</v>
-      </c>
-      <c r="F71" t="s">
-        <v>351</v>
-      </c>
       <c r="G71" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="H71" t="s">
         <v>15</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="J71" t="s">
-        <v>481</v>
+        <v>341</v>
       </c>
       <c r="K71">
-        <v>33.979999999999997</v>
+        <v>32.868333</v>
       </c>
       <c r="L71">
-        <v>-111.302778</v>
+        <v>-109.51055599999999</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B72" t="s">
+        <v>338</v>
+      </c>
+      <c r="C72" t="s">
+        <v>338</v>
+      </c>
+      <c r="F72" t="s">
         <v>345</v>
       </c>
-      <c r="C72" t="s">
-        <v>345</v>
-      </c>
-      <c r="F72" t="s">
-        <v>353</v>
-      </c>
       <c r="G72" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H72" t="s">
         <v>15</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="J72" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="K72">
-        <v>33.619444000000001</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="L72">
-        <v>-110.920833</v>
+        <v>-111.302778</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C73" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F73" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G73" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H73" t="s">
         <v>15</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="J73" t="s">
-        <v>348</v>
+        <v>474</v>
       </c>
       <c r="K73">
-        <v>34.073056000000001</v>
+        <v>33.619444000000001</v>
       </c>
       <c r="L73">
-        <v>-111.71555600000001</v>
+        <v>-110.920833</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C74" t="s">
-        <v>357</v>
-      </c>
-      <c r="D74" t="s">
-        <v>373</v>
-      </c>
-      <c r="E74" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="F74" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="H74" t="s">
         <v>15</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="J74" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="K74">
-        <v>37.688611000000002</v>
+        <v>34.073056000000001</v>
       </c>
       <c r="L74">
-        <v>-106.459861</v>
+        <v>-111.71555600000001</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C75" t="s">
-        <v>358</v>
+        <v>351</v>
+      </c>
+      <c r="D75" t="s">
+        <v>367</v>
+      </c>
+      <c r="E75" t="s">
+        <v>366</v>
       </c>
       <c r="F75" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G75" t="s">
-        <v>376</v>
+        <v>36</v>
       </c>
       <c r="H75" t="s">
         <v>15</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="J75" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="K75">
-        <v>38.163333000000002</v>
+        <v>37.688611000000002</v>
       </c>
       <c r="L75">
-        <v>-106.29</v>
+        <v>-106.459861</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C76" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F76" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G76" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H76" t="s">
         <v>15</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="J76" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="K76">
-        <v>37.374721999999998</v>
+        <v>38.163333000000002</v>
       </c>
       <c r="L76">
-        <v>-106.33416699999999</v>
+        <v>-106.29</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C77" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F77" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G77" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H77" t="s">
         <v>15</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="J77" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K77">
-        <v>37.053888999999998</v>
+        <v>37.374721999999998</v>
       </c>
       <c r="L77">
-        <v>-106.186944</v>
+        <v>-106.33416699999999</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C78" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F78" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G78" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H78" t="s">
         <v>15</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="J78" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="K78">
-        <v>35.874499999999998</v>
+        <v>37.053888999999998</v>
       </c>
       <c r="L78">
-        <v>-106.142444</v>
+        <v>-106.186944</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C79" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F79" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G79" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H79" t="s">
         <v>15</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J79" t="s">
-        <v>483</v>
+        <v>364</v>
       </c>
       <c r="K79">
         <v>35.874499999999998</v>
@@ -4714,28 +6126,28 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C80" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F80" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G80" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H80" t="s">
         <v>15</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J80" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="K80">
         <v>35.874499999999998</v>
@@ -4746,72 +6158,66 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C81" t="s">
-        <v>364</v>
-      </c>
-      <c r="D81" t="s">
-        <v>386</v>
-      </c>
-      <c r="E81" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="F81" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="G81" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="H81" t="s">
         <v>15</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="J81" t="s">
-        <v>476</v>
+        <v>365</v>
       </c>
       <c r="K81">
-        <v>35.686444000000002</v>
+        <v>35.874499999999998</v>
       </c>
       <c r="L81">
-        <v>-105.843611</v>
+        <v>-106.142444</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B82" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C82" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D82" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E82" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F82" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G82" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H82" t="s">
         <v>15</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="J82" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="K82">
         <v>35.686444000000002</v>
@@ -4822,60 +6228,66 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="B83" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="C83" t="s">
-        <v>390</v>
+        <v>359</v>
+      </c>
+      <c r="D83" t="s">
+        <v>380</v>
+      </c>
+      <c r="E83" t="s">
+        <v>379</v>
       </c>
       <c r="F83" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G83" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="H83" t="s">
         <v>15</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="J83" t="s">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="K83">
-        <v>38.433889000000001</v>
+        <v>35.686444000000002</v>
       </c>
       <c r="L83">
-        <v>-105.25666699999999</v>
+        <v>-105.843611</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B84" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C84" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F84" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G84" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H84" t="s">
         <v>15</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J84" t="s">
-        <v>401</v>
+        <v>784</v>
       </c>
       <c r="K84">
         <v>38.433889000000001</v>
@@ -4886,104 +6298,2545 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="B85" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C85" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F85" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G85" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="H85" t="s">
         <v>15</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J85" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="K85">
-        <v>35.654833000000004</v>
+        <v>38.433889000000001</v>
       </c>
       <c r="L85">
-        <v>-104.37861100000001</v>
+        <v>-105.25666699999999</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C86" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F86" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G86" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H86" t="s">
         <v>15</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="J86" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K86">
-        <v>38.545833000000002</v>
+        <v>35.654833000000004</v>
       </c>
       <c r="L86">
-        <v>-106.01</v>
+        <v>-104.37861100000001</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" t="s">
+        <v>387</v>
+      </c>
+      <c r="C87" t="s">
+        <v>387</v>
+      </c>
+      <c r="F87" t="s">
+        <v>393</v>
+      </c>
+      <c r="G87" t="s">
+        <v>394</v>
+      </c>
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="J87" t="s">
+        <v>397</v>
+      </c>
+      <c r="K87">
+        <v>38.545833000000002</v>
+      </c>
+      <c r="L87">
+        <v>-106.01</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" t="s">
+        <v>398</v>
+      </c>
+      <c r="B88" t="s">
+        <v>399</v>
+      </c>
+      <c r="C88" t="s">
+        <v>399</v>
+      </c>
+      <c r="D88" t="s">
+        <v>401</v>
+      </c>
+      <c r="E88" t="s">
+        <v>400</v>
+      </c>
+      <c r="F88" t="s">
+        <v>402</v>
+      </c>
+      <c r="G88" t="s">
+        <v>403</v>
+      </c>
+      <c r="H88" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="J88" t="s">
         <v>404</v>
       </c>
-      <c r="B87" t="s">
-        <v>405</v>
-      </c>
-      <c r="C87" t="s">
-        <v>405</v>
-      </c>
-      <c r="D87" t="s">
-        <v>407</v>
-      </c>
-      <c r="E87" t="s">
-        <v>406</v>
-      </c>
-      <c r="F87" t="s">
-        <v>408</v>
-      </c>
-      <c r="G87" t="s">
-        <v>409</v>
-      </c>
-      <c r="H87" t="s">
-        <v>15</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="J87" t="s">
-        <v>410</v>
-      </c>
-      <c r="K87">
+      <c r="K88">
         <v>39.273583000000002</v>
       </c>
-      <c r="L87">
+      <c r="L88">
         <v>-77.543110999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" t="s">
+        <v>491</v>
+      </c>
+      <c r="B89" t="s">
+        <v>487</v>
+      </c>
+      <c r="C89" t="s">
+        <v>486</v>
+      </c>
+      <c r="D89" t="s">
+        <v>488</v>
+      </c>
+      <c r="E89" t="s">
+        <v>489</v>
+      </c>
+      <c r="F89" t="s">
+        <v>490</v>
+      </c>
+      <c r="J89" t="s">
+        <v>492</v>
+      </c>
+      <c r="K89">
+        <v>-19.666799999999999</v>
+      </c>
+      <c r="L89">
+        <v>147.51840000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" t="s">
+        <v>485</v>
+      </c>
+      <c r="B90" t="s">
+        <v>549</v>
+      </c>
+      <c r="C90" t="s">
+        <v>548</v>
+      </c>
+      <c r="G90" t="s">
+        <v>782</v>
+      </c>
+      <c r="J90" t="s">
+        <v>493</v>
+      </c>
+      <c r="K90">
+        <v>-35.1</v>
+      </c>
+      <c r="L90">
+        <v>-69.599999999999994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" t="s">
+        <v>485</v>
+      </c>
+      <c r="B91" t="s">
+        <v>551</v>
+      </c>
+      <c r="C91" t="s">
+        <v>550</v>
+      </c>
+      <c r="J91" t="s">
+        <v>494</v>
+      </c>
+      <c r="K91">
+        <v>-40</v>
+      </c>
+      <c r="L91">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" t="s">
+        <v>485</v>
+      </c>
+      <c r="B92" t="s">
+        <v>553</v>
+      </c>
+      <c r="C92" t="s">
+        <v>552</v>
+      </c>
+      <c r="G92" t="s">
+        <v>783</v>
+      </c>
+      <c r="J92" t="s">
+        <v>495</v>
+      </c>
+      <c r="K92">
+        <v>-38.531944000000003</v>
+      </c>
+      <c r="L92">
+        <v>-69.413611000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" t="s">
+        <v>505</v>
+      </c>
+      <c r="C93" t="s">
+        <v>504</v>
+      </c>
+      <c r="D93" t="s">
+        <v>506</v>
+      </c>
+      <c r="E93" t="s">
+        <v>507</v>
+      </c>
+      <c r="F93" t="s">
+        <v>508</v>
+      </c>
+      <c r="J93" t="s">
+        <v>496</v>
+      </c>
+      <c r="K93">
+        <v>47.312100000000001</v>
+      </c>
+      <c r="L93">
+        <v>110.6644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A94" t="s">
+        <v>38</v>
+      </c>
+      <c r="B94" t="s">
+        <v>532</v>
+      </c>
+      <c r="C94" t="s">
+        <v>531</v>
+      </c>
+      <c r="D94" t="s">
+        <v>534</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="F94" t="s">
+        <v>535</v>
+      </c>
+      <c r="J94" t="s">
+        <v>497</v>
+      </c>
+      <c r="K94">
+        <v>49.233333000000002</v>
+      </c>
+      <c r="L94">
+        <v>101.35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" t="s">
+        <v>536</v>
+      </c>
+      <c r="B95" t="s">
+        <v>539</v>
+      </c>
+      <c r="C95" t="s">
+        <v>540</v>
+      </c>
+      <c r="D95" t="s">
+        <v>538</v>
+      </c>
+      <c r="E95" t="s">
+        <v>537</v>
+      </c>
+      <c r="J95" t="s">
+        <v>499</v>
+      </c>
+      <c r="K95">
+        <v>-42.851607000000001</v>
+      </c>
+      <c r="L95">
+        <v>172.70104499999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" t="s">
+        <v>518</v>
+      </c>
+      <c r="B96" t="s">
+        <v>520</v>
+      </c>
+      <c r="C96" t="s">
+        <v>519</v>
+      </c>
+      <c r="D96" t="s">
+        <v>521</v>
+      </c>
+      <c r="E96" t="s">
+        <v>522</v>
+      </c>
+      <c r="F96" t="s">
+        <v>523</v>
+      </c>
+      <c r="G96" t="s">
+        <v>524</v>
+      </c>
+      <c r="H96" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J96" t="s">
+        <v>500</v>
+      </c>
+      <c r="K96">
+        <v>34.686</v>
+      </c>
+      <c r="L96">
+        <v>-91.315399999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" t="s">
+        <v>518</v>
+      </c>
+      <c r="B97" t="s">
+        <v>527</v>
+      </c>
+      <c r="C97" t="s">
+        <v>528</v>
+      </c>
+      <c r="D97" t="s">
+        <v>526</v>
+      </c>
+      <c r="E97" t="s">
+        <v>529</v>
+      </c>
+      <c r="F97" t="s">
+        <v>530</v>
+      </c>
+      <c r="G97" t="s">
+        <v>524</v>
+      </c>
+      <c r="H97" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J97" t="s">
+        <v>501</v>
+      </c>
+      <c r="K97" s="3">
+        <v>34.686</v>
+      </c>
+      <c r="L97">
+        <v>-91.315399999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" t="s">
+        <v>542</v>
+      </c>
+      <c r="B98" t="s">
+        <v>543</v>
+      </c>
+      <c r="C98" t="s">
+        <v>541</v>
+      </c>
+      <c r="D98" t="s">
+        <v>545</v>
+      </c>
+      <c r="E98" t="s">
+        <v>544</v>
+      </c>
+      <c r="G98" t="s">
+        <v>546</v>
+      </c>
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J98" t="s">
+        <v>502</v>
+      </c>
+      <c r="K98">
+        <v>45.112119</v>
+      </c>
+      <c r="L98">
+        <v>-110.793667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" t="s">
+        <v>491</v>
+      </c>
+      <c r="B99" t="s">
+        <v>511</v>
+      </c>
+      <c r="C99" t="s">
+        <v>509</v>
+      </c>
+      <c r="D99" t="s">
+        <v>512</v>
+      </c>
+      <c r="E99" t="s">
+        <v>510</v>
+      </c>
+      <c r="F99" t="s">
+        <v>513</v>
+      </c>
+      <c r="J99" t="s">
+        <v>503</v>
+      </c>
+      <c r="K99">
+        <v>-15.5</v>
+      </c>
+      <c r="L99">
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" t="s">
+        <v>719</v>
+      </c>
+      <c r="B100" t="s">
+        <v>554</v>
+      </c>
+      <c r="C100" t="s">
+        <v>514</v>
+      </c>
+      <c r="D100" t="s">
+        <v>515</v>
+      </c>
+      <c r="E100" t="s">
+        <v>516</v>
+      </c>
+      <c r="F100" t="s">
+        <v>517</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="H100" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" t="s">
+        <v>664</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="K100">
+        <v>44.508019529999999</v>
+      </c>
+      <c r="L100">
+        <v>-107.4036886</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" t="s">
+        <v>719</v>
+      </c>
+      <c r="B101" t="s">
+        <v>555</v>
+      </c>
+      <c r="C101" t="s">
+        <v>514</v>
+      </c>
+      <c r="D101" t="s">
+        <v>515</v>
+      </c>
+      <c r="E101" t="s">
+        <v>516</v>
+      </c>
+      <c r="F101" t="s">
+        <v>517</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="H101" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" t="s">
+        <v>665</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="K101">
+        <v>44.20828238</v>
+      </c>
+      <c r="L101">
+        <v>-109.5548879</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" t="s">
+        <v>720</v>
+      </c>
+      <c r="B102" t="s">
+        <v>556</v>
+      </c>
+      <c r="C102" t="s">
+        <v>514</v>
+      </c>
+      <c r="D102" t="s">
+        <v>515</v>
+      </c>
+      <c r="E102" t="s">
+        <v>516</v>
+      </c>
+      <c r="F102" t="s">
+        <v>517</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="H102" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" t="s">
+        <v>666</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="K102">
+        <v>45.006909700000001</v>
+      </c>
+      <c r="L102">
+        <v>-107.61509529999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" t="s">
+        <v>719</v>
+      </c>
+      <c r="B103" t="s">
+        <v>557</v>
+      </c>
+      <c r="C103" t="s">
+        <v>514</v>
+      </c>
+      <c r="D103" t="s">
+        <v>515</v>
+      </c>
+      <c r="E103" t="s">
+        <v>516</v>
+      </c>
+      <c r="F103" t="s">
+        <v>517</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="H103" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103" t="s">
+        <v>667</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="K103">
+        <v>43.577739989999998</v>
+      </c>
+      <c r="L103">
+        <v>-107.13839950000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" t="s">
+        <v>719</v>
+      </c>
+      <c r="B104" t="s">
+        <v>558</v>
+      </c>
+      <c r="C104" t="s">
+        <v>514</v>
+      </c>
+      <c r="D104" t="s">
+        <v>515</v>
+      </c>
+      <c r="E104" t="s">
+        <v>516</v>
+      </c>
+      <c r="F104" t="s">
+        <v>517</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="H104" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" t="s">
+        <v>668</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="K104">
+        <v>44.027742279999998</v>
+      </c>
+      <c r="L104">
+        <v>-107.0808955</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" t="s">
+        <v>721</v>
+      </c>
+      <c r="B105" t="s">
+        <v>559</v>
+      </c>
+      <c r="C105" t="s">
+        <v>514</v>
+      </c>
+      <c r="D105" t="s">
+        <v>515</v>
+      </c>
+      <c r="E105" t="s">
+        <v>516</v>
+      </c>
+      <c r="F105" t="s">
+        <v>517</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="H105" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105" t="s">
+        <v>669</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="K105">
+        <v>47.78723694</v>
+      </c>
+      <c r="L105">
+        <v>-102.7685256</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" t="s">
+        <v>721</v>
+      </c>
+      <c r="B106" t="s">
+        <v>560</v>
+      </c>
+      <c r="C106" t="s">
+        <v>514</v>
+      </c>
+      <c r="D106" t="s">
+        <v>515</v>
+      </c>
+      <c r="E106" t="s">
+        <v>516</v>
+      </c>
+      <c r="F106" t="s">
+        <v>517</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="H106" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" t="s">
+        <v>670</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="K106">
+        <v>46.274727800000001</v>
+      </c>
+      <c r="L106">
+        <v>-103.97631920000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" t="s">
+        <v>721</v>
+      </c>
+      <c r="B107" t="s">
+        <v>561</v>
+      </c>
+      <c r="C107" t="s">
+        <v>514</v>
+      </c>
+      <c r="D107" t="s">
+        <v>515</v>
+      </c>
+      <c r="E107" t="s">
+        <v>516</v>
+      </c>
+      <c r="F107" t="s">
+        <v>517</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="H107" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" t="s">
+        <v>671</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="K107">
+        <v>47.236125940000001</v>
+      </c>
+      <c r="L107">
+        <v>-102.76990739999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" t="s">
+        <v>721</v>
+      </c>
+      <c r="B108" t="s">
+        <v>562</v>
+      </c>
+      <c r="C108" t="s">
+        <v>514</v>
+      </c>
+      <c r="D108" t="s">
+        <v>515</v>
+      </c>
+      <c r="E108" t="s">
+        <v>516</v>
+      </c>
+      <c r="F108" t="s">
+        <v>517</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="H108" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" t="s">
+        <v>672</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="K108">
+        <v>47.027791579999999</v>
+      </c>
+      <c r="L108">
+        <v>-103.0532355</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" t="s">
+        <v>721</v>
+      </c>
+      <c r="B109" t="s">
+        <v>563</v>
+      </c>
+      <c r="C109" t="s">
+        <v>514</v>
+      </c>
+      <c r="D109" t="s">
+        <v>515</v>
+      </c>
+      <c r="E109" t="s">
+        <v>516</v>
+      </c>
+      <c r="F109" t="s">
+        <v>517</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="H109" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" t="s">
+        <v>673</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="K109">
+        <v>46.426671159999998</v>
+      </c>
+      <c r="L109">
+        <v>-102.55183030000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" t="s">
+        <v>721</v>
+      </c>
+      <c r="B110" t="s">
+        <v>564</v>
+      </c>
+      <c r="C110" t="s">
+        <v>514</v>
+      </c>
+      <c r="D110" t="s">
+        <v>515</v>
+      </c>
+      <c r="E110" t="s">
+        <v>516</v>
+      </c>
+      <c r="F110" t="s">
+        <v>517</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="H110" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" t="s">
+        <v>674</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="K110">
+        <v>46.15417025</v>
+      </c>
+      <c r="L110">
+        <v>-102.4740467</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" t="s">
+        <v>721</v>
+      </c>
+      <c r="B111" t="s">
+        <v>565</v>
+      </c>
+      <c r="C111" t="s">
+        <v>514</v>
+      </c>
+      <c r="D111" t="s">
+        <v>515</v>
+      </c>
+      <c r="E111" t="s">
+        <v>516</v>
+      </c>
+      <c r="F111" t="s">
+        <v>517</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="H111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" t="s">
+        <v>675</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="K111">
+        <v>46.376111109999997</v>
+      </c>
+      <c r="L111">
+        <v>-100.9344444</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" t="s">
+        <v>721</v>
+      </c>
+      <c r="B112" t="s">
+        <v>566</v>
+      </c>
+      <c r="C112" t="s">
+        <v>514</v>
+      </c>
+      <c r="D112" t="s">
+        <v>515</v>
+      </c>
+      <c r="E112" t="s">
+        <v>516</v>
+      </c>
+      <c r="F112" t="s">
+        <v>517</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="H112" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" t="s">
+        <v>676</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="K112">
+        <v>46.257490050000001</v>
+      </c>
+      <c r="L112">
+        <v>-100.2331695</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" t="s">
+        <v>722</v>
+      </c>
+      <c r="B113" t="s">
+        <v>567</v>
+      </c>
+      <c r="C113" t="s">
+        <v>514</v>
+      </c>
+      <c r="D113" t="s">
+        <v>515</v>
+      </c>
+      <c r="E113" t="s">
+        <v>516</v>
+      </c>
+      <c r="F113" t="s">
+        <v>517</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="H113" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" t="s">
+        <v>677</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="K113">
+        <v>45.255817120000003</v>
+      </c>
+      <c r="L113">
+        <v>-100.84292139999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" t="s">
+        <v>722</v>
+      </c>
+      <c r="B114" t="s">
+        <v>568</v>
+      </c>
+      <c r="C114" t="s">
+        <v>514</v>
+      </c>
+      <c r="D114" t="s">
+        <v>515</v>
+      </c>
+      <c r="E114" t="s">
+        <v>516</v>
+      </c>
+      <c r="F114" t="s">
+        <v>517</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="H114" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" t="s">
+        <v>678</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="K114">
+        <v>43.828045860000003</v>
+      </c>
+      <c r="L114">
+        <v>-103.1960211</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" t="s">
+        <v>722</v>
+      </c>
+      <c r="B115" t="s">
+        <v>569</v>
+      </c>
+      <c r="C115" t="s">
+        <v>514</v>
+      </c>
+      <c r="D115" t="s">
+        <v>515</v>
+      </c>
+      <c r="E115" t="s">
+        <v>516</v>
+      </c>
+      <c r="F115" t="s">
+        <v>517</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H115" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" t="s">
+        <v>679</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="K115">
+        <v>44.013592379999999</v>
+      </c>
+      <c r="L115">
+        <v>-103.8304784</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" t="s">
+        <v>722</v>
+      </c>
+      <c r="B116" t="s">
+        <v>570</v>
+      </c>
+      <c r="C116" t="s">
+        <v>514</v>
+      </c>
+      <c r="D116" t="s">
+        <v>515</v>
+      </c>
+      <c r="E116" t="s">
+        <v>516</v>
+      </c>
+      <c r="F116" t="s">
+        <v>517</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="H116" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116" t="s">
+        <v>680</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="K116">
+        <v>44.326648970000001</v>
+      </c>
+      <c r="L116">
+        <v>-100.38430030000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" t="s">
+        <v>722</v>
+      </c>
+      <c r="B117" t="s">
+        <v>571</v>
+      </c>
+      <c r="C117" t="s">
+        <v>514</v>
+      </c>
+      <c r="D117" t="s">
+        <v>515</v>
+      </c>
+      <c r="E117" t="s">
+        <v>516</v>
+      </c>
+      <c r="F117" t="s">
+        <v>517</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="H117" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" t="s">
+        <v>681</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="K117">
+        <v>43.752494910000003</v>
+      </c>
+      <c r="L117">
+        <v>-101.5248665</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" t="s">
+        <v>722</v>
+      </c>
+      <c r="B118" t="s">
+        <v>572</v>
+      </c>
+      <c r="C118" t="s">
+        <v>514</v>
+      </c>
+      <c r="D118" t="s">
+        <v>515</v>
+      </c>
+      <c r="E118" t="s">
+        <v>516</v>
+      </c>
+      <c r="F118" t="s">
+        <v>517</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="H118" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" t="s">
+        <v>682</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="K118">
+        <v>43.601385489999998</v>
+      </c>
+      <c r="L118">
+        <v>-100.74986079999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" t="s">
+        <v>722</v>
+      </c>
+      <c r="B119" t="s">
+        <v>573</v>
+      </c>
+      <c r="C119" t="s">
+        <v>514</v>
+      </c>
+      <c r="D119" t="s">
+        <v>515</v>
+      </c>
+      <c r="E119" t="s">
+        <v>516</v>
+      </c>
+      <c r="F119" t="s">
+        <v>517</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="H119" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" t="s">
+        <v>683</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K119">
+        <v>43.748327449999998</v>
+      </c>
+      <c r="L119">
+        <v>-99.556494799999996</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" t="s">
+        <v>723</v>
+      </c>
+      <c r="B120" t="s">
+        <v>574</v>
+      </c>
+      <c r="C120" t="s">
+        <v>514</v>
+      </c>
+      <c r="D120" t="s">
+        <v>515</v>
+      </c>
+      <c r="E120" t="s">
+        <v>516</v>
+      </c>
+      <c r="F120" t="s">
+        <v>517</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="H120" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" t="s">
+        <v>684</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="K120">
+        <v>42.943036110000001</v>
+      </c>
+      <c r="L120">
+        <v>-98.840547220000005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" t="s">
+        <v>723</v>
+      </c>
+      <c r="B121" t="s">
+        <v>575</v>
+      </c>
+      <c r="C121" t="s">
+        <v>514</v>
+      </c>
+      <c r="D121" t="s">
+        <v>515</v>
+      </c>
+      <c r="E121" t="s">
+        <v>516</v>
+      </c>
+      <c r="F121" t="s">
+        <v>517</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="H121" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" t="s">
+        <v>685</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="K121">
+        <v>42.810994440000002</v>
+      </c>
+      <c r="L121">
+        <v>-98.175858329999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" t="s">
+        <v>723</v>
+      </c>
+      <c r="B122" t="s">
+        <v>576</v>
+      </c>
+      <c r="C122" t="s">
+        <v>514</v>
+      </c>
+      <c r="D122" t="s">
+        <v>515</v>
+      </c>
+      <c r="E122" t="s">
+        <v>516</v>
+      </c>
+      <c r="F122" t="s">
+        <v>517</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="H122" t="s">
+        <v>15</v>
+      </c>
+      <c r="I122" t="s">
+        <v>686</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="K122">
+        <v>42.753610799999997</v>
+      </c>
+      <c r="L122">
+        <v>-99.864008299999995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" t="s">
+        <v>721</v>
+      </c>
+      <c r="B123" t="s">
+        <v>577</v>
+      </c>
+      <c r="C123" t="s">
+        <v>514</v>
+      </c>
+      <c r="D123" t="s">
+        <v>515</v>
+      </c>
+      <c r="E123" t="s">
+        <v>516</v>
+      </c>
+      <c r="F123" t="s">
+        <v>517</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="H123" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123" t="s">
+        <v>687</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="K123">
+        <v>45.938861559999999</v>
+      </c>
+      <c r="L123">
+        <v>-98.452600439999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" t="s">
+        <v>722</v>
+      </c>
+      <c r="B124" t="s">
+        <v>578</v>
+      </c>
+      <c r="C124" t="s">
+        <v>514</v>
+      </c>
+      <c r="D124" t="s">
+        <v>515</v>
+      </c>
+      <c r="E124" t="s">
+        <v>516</v>
+      </c>
+      <c r="F124" t="s">
+        <v>517</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="H124" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" t="s">
+        <v>688</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="K124">
+        <v>43.776400000000002</v>
+      </c>
+      <c r="L124">
+        <v>-98.245672220000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" t="s">
+        <v>722</v>
+      </c>
+      <c r="B125" t="s">
+        <v>579</v>
+      </c>
+      <c r="C125" t="s">
+        <v>514</v>
+      </c>
+      <c r="D125" t="s">
+        <v>515</v>
+      </c>
+      <c r="E125" t="s">
+        <v>516</v>
+      </c>
+      <c r="F125" t="s">
+        <v>517</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="H125" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" t="s">
+        <v>689</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="K125">
+        <v>43.794144369999998</v>
+      </c>
+      <c r="L125">
+        <v>-97.367564099999996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" t="s">
+        <v>722</v>
+      </c>
+      <c r="B126" t="s">
+        <v>580</v>
+      </c>
+      <c r="C126" t="s">
+        <v>514</v>
+      </c>
+      <c r="D126" t="s">
+        <v>515</v>
+      </c>
+      <c r="E126" t="s">
+        <v>516</v>
+      </c>
+      <c r="F126" t="s">
+        <v>517</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="H126" t="s">
+        <v>15</v>
+      </c>
+      <c r="I126" t="s">
+        <v>690</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="K126">
+        <v>45.006075299999999</v>
+      </c>
+      <c r="L126">
+        <v>-97.165075599999994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" t="s">
+        <v>723</v>
+      </c>
+      <c r="B127" t="s">
+        <v>581</v>
+      </c>
+      <c r="C127" t="s">
+        <v>514</v>
+      </c>
+      <c r="D127" t="s">
+        <v>515</v>
+      </c>
+      <c r="E127" t="s">
+        <v>516</v>
+      </c>
+      <c r="F127" t="s">
+        <v>517</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="H127" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" t="s">
+        <v>691</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="K127">
+        <v>42.321580560000001</v>
+      </c>
+      <c r="L127">
+        <v>-96.487683329999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" t="s">
+        <v>724</v>
+      </c>
+      <c r="B128" t="s">
+        <v>582</v>
+      </c>
+      <c r="C128" t="s">
+        <v>514</v>
+      </c>
+      <c r="D128" t="s">
+        <v>515</v>
+      </c>
+      <c r="E128" t="s">
+        <v>516</v>
+      </c>
+      <c r="F128" t="s">
+        <v>517</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="H128" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128" t="s">
+        <v>692</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="K128">
+        <v>40.49609409</v>
+      </c>
+      <c r="L128">
+        <v>-105.86501199999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" t="s">
+        <v>719</v>
+      </c>
+      <c r="B129" t="s">
+        <v>583</v>
+      </c>
+      <c r="C129" t="s">
+        <v>514</v>
+      </c>
+      <c r="D129" t="s">
+        <v>515</v>
+      </c>
+      <c r="E129" t="s">
+        <v>516</v>
+      </c>
+      <c r="F129" t="s">
+        <v>517</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="H129" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" t="s">
+        <v>693</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="K129">
+        <v>41.370244710000001</v>
+      </c>
+      <c r="L129">
+        <v>-106.52058150000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" t="s">
+        <v>719</v>
+      </c>
+      <c r="B130" t="s">
+        <v>584</v>
+      </c>
+      <c r="C130" t="s">
+        <v>514</v>
+      </c>
+      <c r="D130" t="s">
+        <v>515</v>
+      </c>
+      <c r="E130" t="s">
+        <v>516</v>
+      </c>
+      <c r="F130" t="s">
+        <v>517</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="H130" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" t="s">
+        <v>694</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="K130">
+        <v>41.585245489999998</v>
+      </c>
+      <c r="L130">
+        <v>-106.22279090000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" t="s">
+        <v>723</v>
+      </c>
+      <c r="B131" t="s">
+        <v>585</v>
+      </c>
+      <c r="C131" t="s">
+        <v>514</v>
+      </c>
+      <c r="D131" t="s">
+        <v>515</v>
+      </c>
+      <c r="E131" t="s">
+        <v>516</v>
+      </c>
+      <c r="F131" t="s">
+        <v>517</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="H131" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" t="s">
+        <v>695</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="K131">
+        <v>41.831244439999999</v>
+      </c>
+      <c r="L131">
+        <v>-100.1007778</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" t="s">
+        <v>723</v>
+      </c>
+      <c r="B132" t="s">
+        <v>586</v>
+      </c>
+      <c r="C132" t="s">
+        <v>514</v>
+      </c>
+      <c r="D132" t="s">
+        <v>515</v>
+      </c>
+      <c r="E132" t="s">
+        <v>516</v>
+      </c>
+      <c r="F132" t="s">
+        <v>517</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="H132" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" t="s">
+        <v>696</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="K132">
+        <v>41.037952779999998</v>
+      </c>
+      <c r="L132">
+        <v>-98.99278056</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" t="s">
+        <v>723</v>
+      </c>
+      <c r="B133" t="s">
+        <v>587</v>
+      </c>
+      <c r="C133" t="s">
+        <v>514</v>
+      </c>
+      <c r="D133" t="s">
+        <v>515</v>
+      </c>
+      <c r="E133" t="s">
+        <v>516</v>
+      </c>
+      <c r="F133" t="s">
+        <v>517</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="H133" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" t="s">
+        <v>697</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="K133">
+        <v>41.032444439999999</v>
+      </c>
+      <c r="L133">
+        <v>-98.740533330000005</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" t="s">
+        <v>723</v>
+      </c>
+      <c r="B134" t="s">
+        <v>588</v>
+      </c>
+      <c r="C134" t="s">
+        <v>514</v>
+      </c>
+      <c r="D134" t="s">
+        <v>515</v>
+      </c>
+      <c r="E134" t="s">
+        <v>516</v>
+      </c>
+      <c r="F134" t="s">
+        <v>517</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="H134" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134" t="s">
+        <v>698</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="K134">
+        <v>40.893113890000002</v>
+      </c>
+      <c r="L134">
+        <v>-96.681552780000004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" t="s">
+        <v>723</v>
+      </c>
+      <c r="B135" t="s">
+        <v>589</v>
+      </c>
+      <c r="C135" t="s">
+        <v>514</v>
+      </c>
+      <c r="D135" t="s">
+        <v>515</v>
+      </c>
+      <c r="E135" t="s">
+        <v>516</v>
+      </c>
+      <c r="F135" t="s">
+        <v>517</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="H135" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135" t="s">
+        <v>699</v>
+      </c>
+      <c r="J135" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="K135">
+        <v>41.01569722</v>
+      </c>
+      <c r="L135">
+        <v>-96.544283329999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" t="s">
+        <v>725</v>
+      </c>
+      <c r="B136" t="s">
+        <v>590</v>
+      </c>
+      <c r="C136" t="s">
+        <v>514</v>
+      </c>
+      <c r="D136" t="s">
+        <v>515</v>
+      </c>
+      <c r="E136" t="s">
+        <v>516</v>
+      </c>
+      <c r="F136" t="s">
+        <v>517</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="H136" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" t="s">
+        <v>700</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="K136">
+        <v>39.94777732</v>
+      </c>
+      <c r="L136">
+        <v>-96.108614919999994</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" t="s">
+        <v>725</v>
+      </c>
+      <c r="B137" t="s">
+        <v>591</v>
+      </c>
+      <c r="C137" t="s">
+        <v>514</v>
+      </c>
+      <c r="D137" t="s">
+        <v>515</v>
+      </c>
+      <c r="E137" t="s">
+        <v>516</v>
+      </c>
+      <c r="F137" t="s">
+        <v>517</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="H137" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" t="s">
+        <v>701</v>
+      </c>
+      <c r="J137" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="K137">
+        <v>39.985005569999998</v>
+      </c>
+      <c r="L137">
+        <v>-100.560148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" t="s">
+        <v>723</v>
+      </c>
+      <c r="B138" t="s">
+        <v>592</v>
+      </c>
+      <c r="C138" t="s">
+        <v>514</v>
+      </c>
+      <c r="D138" t="s">
+        <v>515</v>
+      </c>
+      <c r="E138" t="s">
+        <v>516</v>
+      </c>
+      <c r="F138" t="s">
+        <v>517</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="H138" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138" t="s">
+        <v>702</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="K138">
+        <v>40.120006940000003</v>
+      </c>
+      <c r="L138">
+        <v>-99.893456700000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" t="s">
+        <v>725</v>
+      </c>
+      <c r="B139" t="s">
+        <v>593</v>
+      </c>
+      <c r="C139" t="s">
+        <v>514</v>
+      </c>
+      <c r="D139" t="s">
+        <v>515</v>
+      </c>
+      <c r="E139" t="s">
+        <v>516</v>
+      </c>
+      <c r="F139" t="s">
+        <v>517</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="H139" t="s">
+        <v>15</v>
+      </c>
+      <c r="I139" t="s">
+        <v>703</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="K139">
+        <v>39.769849219999998</v>
+      </c>
+      <c r="L139">
+        <v>-100.10077920000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" t="s">
+        <v>725</v>
+      </c>
+      <c r="B140" t="s">
+        <v>594</v>
+      </c>
+      <c r="C140" t="s">
+        <v>514</v>
+      </c>
+      <c r="D140" t="s">
+        <v>515</v>
+      </c>
+      <c r="E140" t="s">
+        <v>516</v>
+      </c>
+      <c r="F140" t="s">
+        <v>517</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="H140" t="s">
+        <v>15</v>
+      </c>
+      <c r="I140" t="s">
+        <v>704</v>
+      </c>
+      <c r="J140" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="K140">
+        <v>39.899249439999998</v>
+      </c>
+      <c r="L140">
+        <v>-98.250424850000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" t="s">
+        <v>725</v>
+      </c>
+      <c r="B141" t="s">
+        <v>595</v>
+      </c>
+      <c r="C141" t="s">
+        <v>514</v>
+      </c>
+      <c r="D141" t="s">
+        <v>515</v>
+      </c>
+      <c r="E141" t="s">
+        <v>516</v>
+      </c>
+      <c r="F141" t="s">
+        <v>517</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H141" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" t="s">
+        <v>705</v>
+      </c>
+      <c r="J141" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="K141">
+        <v>39.139068760000001</v>
+      </c>
+      <c r="L141">
+        <v>-97.83695994</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" t="s">
+        <v>725</v>
+      </c>
+      <c r="B142" t="s">
+        <v>596</v>
+      </c>
+      <c r="C142" t="s">
+        <v>514</v>
+      </c>
+      <c r="D142" t="s">
+        <v>515</v>
+      </c>
+      <c r="E142" t="s">
+        <v>516</v>
+      </c>
+      <c r="F142" t="s">
+        <v>517</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H142" t="s">
+        <v>15</v>
+      </c>
+      <c r="I142" t="s">
+        <v>706</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="K142">
+        <v>39.031109000000001</v>
+      </c>
+      <c r="L142">
+        <v>-97.040292199999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" t="s">
+        <v>725</v>
+      </c>
+      <c r="B143" t="s">
+        <v>597</v>
+      </c>
+      <c r="C143" t="s">
+        <v>514</v>
+      </c>
+      <c r="D143" t="s">
+        <v>515</v>
+      </c>
+      <c r="E143" t="s">
+        <v>516</v>
+      </c>
+      <c r="F143" t="s">
+        <v>517</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H143" t="s">
+        <v>15</v>
+      </c>
+      <c r="I143" t="s">
+        <v>707</v>
+      </c>
+      <c r="J143" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="K143">
+        <v>39.681924049999999</v>
+      </c>
+      <c r="L143">
+        <v>-96.44289431</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" t="s">
+        <v>725</v>
+      </c>
+      <c r="B144" t="s">
+        <v>598</v>
+      </c>
+      <c r="C144" t="s">
+        <v>514</v>
+      </c>
+      <c r="D144" t="s">
+        <v>515</v>
+      </c>
+      <c r="E144" t="s">
+        <v>516</v>
+      </c>
+      <c r="F144" t="s">
+        <v>517</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="H144" t="s">
+        <v>15</v>
+      </c>
+      <c r="I144" t="s">
+        <v>708</v>
+      </c>
+      <c r="J144" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="K144">
+        <v>39.062654530000003</v>
+      </c>
+      <c r="L144">
+        <v>-96.150251789999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" t="s">
+        <v>725</v>
+      </c>
+      <c r="B145" t="s">
+        <v>599</v>
+      </c>
+      <c r="C145" t="s">
+        <v>514</v>
+      </c>
+      <c r="D145" t="s">
+        <v>515</v>
+      </c>
+      <c r="E145" t="s">
+        <v>516</v>
+      </c>
+      <c r="F145" t="s">
+        <v>517</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="H145" t="s">
+        <v>15</v>
+      </c>
+      <c r="I145" t="s">
+        <v>709</v>
+      </c>
+      <c r="J145" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="K145">
+        <v>39.238330240000003</v>
+      </c>
+      <c r="L145">
+        <v>-95.888599240000005</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" t="s">
+        <v>725</v>
+      </c>
+      <c r="B146" t="s">
+        <v>600</v>
+      </c>
+      <c r="C146" t="s">
+        <v>514</v>
+      </c>
+      <c r="D146" t="s">
+        <v>515</v>
+      </c>
+      <c r="E146" t="s">
+        <v>516</v>
+      </c>
+      <c r="F146" t="s">
+        <v>517</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H146" t="s">
+        <v>15</v>
+      </c>
+      <c r="I146" t="s">
+        <v>710</v>
+      </c>
+      <c r="J146" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="K146">
+        <v>39.099380029999999</v>
+      </c>
+      <c r="L146">
+        <v>-95.724952259999995</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" t="s">
+        <v>725</v>
+      </c>
+      <c r="B147" t="s">
+        <v>601</v>
+      </c>
+      <c r="C147" t="s">
+        <v>514</v>
+      </c>
+      <c r="D147" t="s">
+        <v>515</v>
+      </c>
+      <c r="E147" t="s">
+        <v>516</v>
+      </c>
+      <c r="F147" t="s">
+        <v>517</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H147" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" t="s">
+        <v>711</v>
+      </c>
+      <c r="J147" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="K147">
+        <v>39.116327339999998</v>
+      </c>
+      <c r="L147">
+        <v>-95.01088111</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" t="s">
+        <v>726</v>
+      </c>
+      <c r="B148" t="s">
+        <v>602</v>
+      </c>
+      <c r="C148" t="s">
+        <v>514</v>
+      </c>
+      <c r="D148" t="s">
+        <v>515</v>
+      </c>
+      <c r="E148" t="s">
+        <v>516</v>
+      </c>
+      <c r="F148" t="s">
+        <v>517</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H148" t="s">
+        <v>15</v>
+      </c>
+      <c r="I148" t="s">
+        <v>712</v>
+      </c>
+      <c r="J148" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="K148">
+        <v>40.309908329999999</v>
+      </c>
+      <c r="L148">
+        <v>-93.594919439999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" t="s">
+        <v>725</v>
+      </c>
+      <c r="B149" t="s">
+        <v>603</v>
+      </c>
+      <c r="C149" t="s">
+        <v>514</v>
+      </c>
+      <c r="D149" t="s">
+        <v>515</v>
+      </c>
+      <c r="E149" t="s">
+        <v>516</v>
+      </c>
+      <c r="F149" t="s">
+        <v>517</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H149" t="s">
+        <v>15</v>
+      </c>
+      <c r="I149" t="s">
+        <v>713</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="K149">
+        <v>38.56700524</v>
+      </c>
+      <c r="L149">
+        <v>-95.961632059999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" t="s">
+        <v>725</v>
+      </c>
+      <c r="B150" t="s">
+        <v>604</v>
+      </c>
+      <c r="C150" t="s">
+        <v>514</v>
+      </c>
+      <c r="D150" t="s">
+        <v>515</v>
+      </c>
+      <c r="E150" t="s">
+        <v>516</v>
+      </c>
+      <c r="F150" t="s">
+        <v>517</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="H150" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150" t="s">
+        <v>714</v>
+      </c>
+      <c r="J150" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="K150">
+        <v>38.710690339999999</v>
+      </c>
+      <c r="L150">
+        <v>-95.836028799999994</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" t="s">
+        <v>725</v>
+      </c>
+      <c r="B151" t="s">
+        <v>605</v>
+      </c>
+      <c r="C151" t="s">
+        <v>514</v>
+      </c>
+      <c r="D151" t="s">
+        <v>515</v>
+      </c>
+      <c r="E151" t="s">
+        <v>516</v>
+      </c>
+      <c r="F151" t="s">
+        <v>517</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="H151" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" t="s">
+        <v>715</v>
+      </c>
+      <c r="J151" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="K151">
+        <v>38.018968280000003</v>
+      </c>
+      <c r="L151">
+        <v>-94.713668290000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" t="s">
+        <v>726</v>
+      </c>
+      <c r="B152" t="s">
+        <v>606</v>
+      </c>
+      <c r="C152" t="s">
+        <v>514</v>
+      </c>
+      <c r="D152" t="s">
+        <v>515</v>
+      </c>
+      <c r="E152" t="s">
+        <v>516</v>
+      </c>
+      <c r="F152" t="s">
+        <v>517</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="H152" t="s">
+        <v>15</v>
+      </c>
+      <c r="I152" t="s">
+        <v>716</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="K152">
+        <v>37.402369440000001</v>
+      </c>
+      <c r="L152">
+        <v>-93.802027780000003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" t="s">
+        <v>726</v>
+      </c>
+      <c r="B153" t="s">
+        <v>607</v>
+      </c>
+      <c r="C153" t="s">
+        <v>514</v>
+      </c>
+      <c r="D153" t="s">
+        <v>515</v>
+      </c>
+      <c r="E153" t="s">
+        <v>516</v>
+      </c>
+      <c r="F153" t="s">
+        <v>517</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="H153" t="s">
+        <v>15</v>
+      </c>
+      <c r="I153" t="s">
+        <v>717</v>
+      </c>
+      <c r="J153" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="K153">
+        <v>37.682652779999998</v>
+      </c>
+      <c r="L153">
+        <v>-93.370333329999994</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" t="s">
+        <v>726</v>
+      </c>
+      <c r="B154" t="s">
+        <v>608</v>
+      </c>
+      <c r="C154" t="s">
+        <v>514</v>
+      </c>
+      <c r="D154" t="s">
+        <v>515</v>
+      </c>
+      <c r="E154" t="s">
+        <v>516</v>
+      </c>
+      <c r="F154" t="s">
+        <v>517</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="H154" t="s">
+        <v>15</v>
+      </c>
+      <c r="I154" t="s">
+        <v>718</v>
+      </c>
+      <c r="J154" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="K154">
+        <v>37.750466670000002</v>
+      </c>
+      <c r="L154">
+        <v>-93.266183330000004</v>
       </c>
     </row>
   </sheetData>
@@ -4991,78 +8844,82 @@
     <hyperlink ref="I2" r:id="rId1"/>
     <hyperlink ref="I3" r:id="rId2"/>
     <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="F7" r:id="rId5"/>
-    <hyperlink ref="I9" r:id="rId6"/>
-    <hyperlink ref="I10" r:id="rId7"/>
-    <hyperlink ref="I11" r:id="rId8"/>
-    <hyperlink ref="I12" r:id="rId9"/>
-    <hyperlink ref="I13" r:id="rId10"/>
-    <hyperlink ref="I14" r:id="rId11"/>
-    <hyperlink ref="F15" r:id="rId12"/>
-    <hyperlink ref="I15" r:id="rId13"/>
-    <hyperlink ref="I16" r:id="rId14"/>
-    <hyperlink ref="I17" r:id="rId15"/>
-    <hyperlink ref="I18" r:id="rId16"/>
-    <hyperlink ref="I19" r:id="rId17"/>
-    <hyperlink ref="I20" r:id="rId18"/>
-    <hyperlink ref="I21" r:id="rId19"/>
-    <hyperlink ref="I22" r:id="rId20"/>
-    <hyperlink ref="I24" r:id="rId21"/>
-    <hyperlink ref="I25" r:id="rId22"/>
-    <hyperlink ref="I26" r:id="rId23"/>
-    <hyperlink ref="I27" r:id="rId24"/>
-    <hyperlink ref="I28" r:id="rId25"/>
-    <hyperlink ref="I29" r:id="rId26"/>
-    <hyperlink ref="I30" r:id="rId27"/>
-    <hyperlink ref="I32" r:id="rId28"/>
-    <hyperlink ref="I33" r:id="rId29"/>
-    <hyperlink ref="I34:I40" r:id="rId30" display="https://waterdata.usgs.gov/nwis/inventory/?site_no=09152500&amp;agency_cd=USGS"/>
-    <hyperlink ref="I34" r:id="rId31"/>
-    <hyperlink ref="I35" r:id="rId32"/>
-    <hyperlink ref="I36" r:id="rId33"/>
-    <hyperlink ref="I37" r:id="rId34"/>
-    <hyperlink ref="I38" r:id="rId35"/>
-    <hyperlink ref="I39" r:id="rId36"/>
-    <hyperlink ref="I40" r:id="rId37"/>
-    <hyperlink ref="F31" r:id="rId38"/>
-    <hyperlink ref="I43" r:id="rId39"/>
-    <hyperlink ref="I44" r:id="rId40"/>
-    <hyperlink ref="I45" r:id="rId41"/>
-    <hyperlink ref="I46" r:id="rId42"/>
-    <hyperlink ref="I47" r:id="rId43"/>
-    <hyperlink ref="I48" r:id="rId44"/>
-    <hyperlink ref="I49" r:id="rId45"/>
-    <hyperlink ref="I50" r:id="rId46"/>
-    <hyperlink ref="I51" r:id="rId47"/>
-    <hyperlink ref="I52" r:id="rId48"/>
-    <hyperlink ref="I53" r:id="rId49"/>
-    <hyperlink ref="I54" r:id="rId50"/>
-    <hyperlink ref="I59" r:id="rId51"/>
-    <hyperlink ref="I60" r:id="rId52"/>
-    <hyperlink ref="I61" r:id="rId53"/>
-    <hyperlink ref="F62" r:id="rId54"/>
-    <hyperlink ref="I70" r:id="rId55"/>
-    <hyperlink ref="I71" r:id="rId56"/>
-    <hyperlink ref="I72" r:id="rId57"/>
-    <hyperlink ref="I73" r:id="rId58"/>
-    <hyperlink ref="I74" r:id="rId59"/>
-    <hyperlink ref="I75" r:id="rId60"/>
-    <hyperlink ref="I76" r:id="rId61"/>
-    <hyperlink ref="I77" r:id="rId62"/>
-    <hyperlink ref="I78" r:id="rId63"/>
-    <hyperlink ref="I79" r:id="rId64"/>
-    <hyperlink ref="I80" r:id="rId65"/>
-    <hyperlink ref="I81" r:id="rId66"/>
-    <hyperlink ref="I82" r:id="rId67"/>
-    <hyperlink ref="I83" r:id="rId68"/>
-    <hyperlink ref="I84" r:id="rId69"/>
-    <hyperlink ref="I85" r:id="rId70"/>
-    <hyperlink ref="I86" r:id="rId71"/>
-    <hyperlink ref="I87" r:id="rId72"/>
+    <hyperlink ref="I6" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="I10" r:id="rId6"/>
+    <hyperlink ref="I11" r:id="rId7"/>
+    <hyperlink ref="I12" r:id="rId8"/>
+    <hyperlink ref="I13" r:id="rId9"/>
+    <hyperlink ref="I14" r:id="rId10"/>
+    <hyperlink ref="I15" r:id="rId11"/>
+    <hyperlink ref="F16" r:id="rId12"/>
+    <hyperlink ref="I16" r:id="rId13"/>
+    <hyperlink ref="I17" r:id="rId14"/>
+    <hyperlink ref="I18" r:id="rId15"/>
+    <hyperlink ref="I19" r:id="rId16"/>
+    <hyperlink ref="I20" r:id="rId17"/>
+    <hyperlink ref="I21" r:id="rId18"/>
+    <hyperlink ref="I22" r:id="rId19"/>
+    <hyperlink ref="I23" r:id="rId20"/>
+    <hyperlink ref="I25" r:id="rId21"/>
+    <hyperlink ref="I26" r:id="rId22"/>
+    <hyperlink ref="I27" r:id="rId23"/>
+    <hyperlink ref="I28" r:id="rId24"/>
+    <hyperlink ref="I29" r:id="rId25"/>
+    <hyperlink ref="I30" r:id="rId26"/>
+    <hyperlink ref="I31" r:id="rId27"/>
+    <hyperlink ref="I33" r:id="rId28"/>
+    <hyperlink ref="I34" r:id="rId29"/>
+    <hyperlink ref="I35:I41" r:id="rId30" display="https://waterdata.usgs.gov/nwis/inventory/?site_no=09152500&amp;agency_cd=USGS"/>
+    <hyperlink ref="I35" r:id="rId31"/>
+    <hyperlink ref="I36" r:id="rId32"/>
+    <hyperlink ref="I37" r:id="rId33"/>
+    <hyperlink ref="I38" r:id="rId34"/>
+    <hyperlink ref="I39" r:id="rId35"/>
+    <hyperlink ref="I40" r:id="rId36"/>
+    <hyperlink ref="I41" r:id="rId37"/>
+    <hyperlink ref="F32" r:id="rId38"/>
+    <hyperlink ref="I44" r:id="rId39"/>
+    <hyperlink ref="I45" r:id="rId40"/>
+    <hyperlink ref="I46" r:id="rId41"/>
+    <hyperlink ref="I47" r:id="rId42"/>
+    <hyperlink ref="I48" r:id="rId43"/>
+    <hyperlink ref="I49" r:id="rId44"/>
+    <hyperlink ref="I50" r:id="rId45"/>
+    <hyperlink ref="I51" r:id="rId46"/>
+    <hyperlink ref="I52" r:id="rId47"/>
+    <hyperlink ref="I53" r:id="rId48"/>
+    <hyperlink ref="I54" r:id="rId49"/>
+    <hyperlink ref="I55" r:id="rId50"/>
+    <hyperlink ref="I60" r:id="rId51"/>
+    <hyperlink ref="I61" r:id="rId52"/>
+    <hyperlink ref="I62" r:id="rId53"/>
+    <hyperlink ref="F63" r:id="rId54"/>
+    <hyperlink ref="I71" r:id="rId55"/>
+    <hyperlink ref="I72" r:id="rId56"/>
+    <hyperlink ref="I73" r:id="rId57"/>
+    <hyperlink ref="I74" r:id="rId58"/>
+    <hyperlink ref="I75" r:id="rId59"/>
+    <hyperlink ref="I76" r:id="rId60"/>
+    <hyperlink ref="I77" r:id="rId61"/>
+    <hyperlink ref="I78" r:id="rId62"/>
+    <hyperlink ref="I79" r:id="rId63"/>
+    <hyperlink ref="I80" r:id="rId64"/>
+    <hyperlink ref="I81" r:id="rId65"/>
+    <hyperlink ref="I82" r:id="rId66"/>
+    <hyperlink ref="I83" r:id="rId67"/>
+    <hyperlink ref="I84" r:id="rId68"/>
+    <hyperlink ref="I85" r:id="rId69"/>
+    <hyperlink ref="I86" r:id="rId70"/>
+    <hyperlink ref="I87" r:id="rId71"/>
+    <hyperlink ref="I88" r:id="rId72"/>
+    <hyperlink ref="I5" r:id="rId73"/>
+    <hyperlink ref="I96" r:id="rId74"/>
+    <hyperlink ref="I97" r:id="rId75"/>
+    <hyperlink ref="I98" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId73"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId77"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/code/paleo_flow/data/sites_annual.xlsx
+++ b/code/paleo_flow/data/sites_annual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="782">
   <si>
     <t>site_group</t>
   </si>
@@ -2173,30 +2173,6 @@
     <t>https://waterdata.usgs.gov/nwis/inventory/?site_no=06921200&amp;agency_cd=USGS</t>
   </si>
   <si>
-    <t>USA,  WY</t>
-  </si>
-  <si>
-    <t>USA,  MT</t>
-  </si>
-  <si>
-    <t>USA,  ND</t>
-  </si>
-  <si>
-    <t>USA,  SD</t>
-  </si>
-  <si>
-    <t>USA,  NE</t>
-  </si>
-  <si>
-    <t>USA,  CO</t>
-  </si>
-  <si>
-    <t>USA,  KS</t>
-  </si>
-  <si>
-    <t>USA,  MO</t>
-  </si>
-  <si>
     <t>usgs_06278300</t>
   </si>
   <si>
@@ -2369,6 +2345,21 @@
   </si>
   <si>
     <t>arkansascanoncity_update</t>
+  </si>
+  <si>
+    <t>USA, ND</t>
+  </si>
+  <si>
+    <t>USA, SD</t>
+  </si>
+  <si>
+    <t>USA, NE</t>
+  </si>
+  <si>
+    <t>USA, KS</t>
+  </si>
+  <si>
+    <t>USA, MO</t>
   </si>
 </sst>
 </file>
@@ -3216,8 +3207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E71" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6287,7 +6278,7 @@
         <v>466</v>
       </c>
       <c r="J84" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="K84">
         <v>38.433889000000001</v>
@@ -6470,7 +6461,7 @@
         <v>548</v>
       </c>
       <c r="G90" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="J90" t="s">
         <v>493</v>
@@ -6513,7 +6504,7 @@
         <v>552</v>
       </c>
       <c r="G92" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="J92" t="s">
         <v>495</v>
@@ -6751,7 +6742,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>719</v>
+        <v>49</v>
       </c>
       <c r="B100" t="s">
         <v>554</v>
@@ -6778,7 +6769,7 @@
         <v>664</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="K100">
         <v>44.508019529999999</v>
@@ -6789,7 +6780,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>719</v>
+        <v>49</v>
       </c>
       <c r="B101" t="s">
         <v>555</v>
@@ -6816,7 +6807,7 @@
         <v>665</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="K101">
         <v>44.20828238</v>
@@ -6827,7 +6818,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>720</v>
+        <v>542</v>
       </c>
       <c r="B102" t="s">
         <v>556</v>
@@ -6854,7 +6845,7 @@
         <v>666</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="K102">
         <v>45.006909700000001</v>
@@ -6865,7 +6856,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>719</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s">
         <v>557</v>
@@ -6892,7 +6883,7 @@
         <v>667</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="K103">
         <v>43.577739989999998</v>
@@ -6903,7 +6894,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>719</v>
+        <v>49</v>
       </c>
       <c r="B104" t="s">
         <v>558</v>
@@ -6930,7 +6921,7 @@
         <v>668</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="K104">
         <v>44.027742279999998</v>
@@ -6941,7 +6932,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>721</v>
+        <v>777</v>
       </c>
       <c r="B105" t="s">
         <v>559</v>
@@ -6968,7 +6959,7 @@
         <v>669</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="K105">
         <v>47.78723694</v>
@@ -6979,7 +6970,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>721</v>
+        <v>777</v>
       </c>
       <c r="B106" t="s">
         <v>560</v>
@@ -7006,7 +6997,7 @@
         <v>670</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="K106">
         <v>46.274727800000001</v>
@@ -7017,7 +7008,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>721</v>
+        <v>777</v>
       </c>
       <c r="B107" t="s">
         <v>561</v>
@@ -7044,7 +7035,7 @@
         <v>671</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="K107">
         <v>47.236125940000001</v>
@@ -7055,7 +7046,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>721</v>
+        <v>777</v>
       </c>
       <c r="B108" t="s">
         <v>562</v>
@@ -7082,7 +7073,7 @@
         <v>672</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="K108">
         <v>47.027791579999999</v>
@@ -7093,7 +7084,7 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>721</v>
+        <v>777</v>
       </c>
       <c r="B109" t="s">
         <v>563</v>
@@ -7120,7 +7111,7 @@
         <v>673</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="K109">
         <v>46.426671159999998</v>
@@ -7131,7 +7122,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>721</v>
+        <v>777</v>
       </c>
       <c r="B110" t="s">
         <v>564</v>
@@ -7158,7 +7149,7 @@
         <v>674</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="K110">
         <v>46.15417025</v>
@@ -7169,7 +7160,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>721</v>
+        <v>777</v>
       </c>
       <c r="B111" t="s">
         <v>565</v>
@@ -7196,7 +7187,7 @@
         <v>675</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="K111">
         <v>46.376111109999997</v>
@@ -7207,7 +7198,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>721</v>
+        <v>777</v>
       </c>
       <c r="B112" t="s">
         <v>566</v>
@@ -7234,7 +7225,7 @@
         <v>676</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="K112">
         <v>46.257490050000001</v>
@@ -7245,7 +7236,7 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="B113" t="s">
         <v>567</v>
@@ -7272,7 +7263,7 @@
         <v>677</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="K113">
         <v>45.255817120000003</v>
@@ -7283,7 +7274,7 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="B114" t="s">
         <v>568</v>
@@ -7310,7 +7301,7 @@
         <v>678</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="K114">
         <v>43.828045860000003</v>
@@ -7321,7 +7312,7 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="B115" t="s">
         <v>569</v>
@@ -7348,7 +7339,7 @@
         <v>679</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="K115">
         <v>44.013592379999999</v>
@@ -7359,7 +7350,7 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="B116" t="s">
         <v>570</v>
@@ -7386,7 +7377,7 @@
         <v>680</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="K116">
         <v>44.326648970000001</v>
@@ -7397,7 +7388,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="B117" t="s">
         <v>571</v>
@@ -7424,7 +7415,7 @@
         <v>681</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="K117">
         <v>43.752494910000003</v>
@@ -7435,7 +7426,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="B118" t="s">
         <v>572</v>
@@ -7462,7 +7453,7 @@
         <v>682</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="K118">
         <v>43.601385489999998</v>
@@ -7473,7 +7464,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="B119" t="s">
         <v>573</v>
@@ -7500,7 +7491,7 @@
         <v>683</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="K119">
         <v>43.748327449999998</v>
@@ -7511,7 +7502,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>723</v>
+        <v>779</v>
       </c>
       <c r="B120" t="s">
         <v>574</v>
@@ -7538,7 +7529,7 @@
         <v>684</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="K120">
         <v>42.943036110000001</v>
@@ -7549,7 +7540,7 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>723</v>
+        <v>779</v>
       </c>
       <c r="B121" t="s">
         <v>575</v>
@@ -7576,7 +7567,7 @@
         <v>685</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="K121">
         <v>42.810994440000002</v>
@@ -7587,7 +7578,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>723</v>
+        <v>779</v>
       </c>
       <c r="B122" t="s">
         <v>576</v>
@@ -7614,7 +7605,7 @@
         <v>686</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="K122">
         <v>42.753610799999997</v>
@@ -7625,7 +7616,7 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>721</v>
+        <v>777</v>
       </c>
       <c r="B123" t="s">
         <v>577</v>
@@ -7652,7 +7643,7 @@
         <v>687</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="K123">
         <v>45.938861559999999</v>
@@ -7663,7 +7654,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="B124" t="s">
         <v>578</v>
@@ -7690,7 +7681,7 @@
         <v>688</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="K124">
         <v>43.776400000000002</v>
@@ -7701,7 +7692,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="B125" t="s">
         <v>579</v>
@@ -7728,7 +7719,7 @@
         <v>689</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="K125">
         <v>43.794144369999998</v>
@@ -7739,7 +7730,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="B126" t="s">
         <v>580</v>
@@ -7766,7 +7757,7 @@
         <v>690</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="K126">
         <v>45.006075299999999</v>
@@ -7777,7 +7768,7 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>723</v>
+        <v>779</v>
       </c>
       <c r="B127" t="s">
         <v>581</v>
@@ -7804,7 +7795,7 @@
         <v>691</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="K127">
         <v>42.321580560000001</v>
@@ -7815,7 +7806,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>724</v>
+        <v>43</v>
       </c>
       <c r="B128" t="s">
         <v>582</v>
@@ -7842,7 +7833,7 @@
         <v>692</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="K128">
         <v>40.49609409</v>
@@ -7853,7 +7844,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>719</v>
+        <v>49</v>
       </c>
       <c r="B129" t="s">
         <v>583</v>
@@ -7880,7 +7871,7 @@
         <v>693</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="K129">
         <v>41.370244710000001</v>
@@ -7891,7 +7882,7 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
-        <v>719</v>
+        <v>49</v>
       </c>
       <c r="B130" t="s">
         <v>584</v>
@@ -7918,7 +7909,7 @@
         <v>694</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="K130">
         <v>41.585245489999998</v>
@@ -7929,7 +7920,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>723</v>
+        <v>779</v>
       </c>
       <c r="B131" t="s">
         <v>585</v>
@@ -7956,7 +7947,7 @@
         <v>695</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="K131">
         <v>41.831244439999999</v>
@@ -7967,7 +7958,7 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>723</v>
+        <v>779</v>
       </c>
       <c r="B132" t="s">
         <v>586</v>
@@ -7994,7 +7985,7 @@
         <v>696</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="K132">
         <v>41.037952779999998</v>
@@ -8005,7 +7996,7 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>723</v>
+        <v>779</v>
       </c>
       <c r="B133" t="s">
         <v>587</v>
@@ -8032,7 +8023,7 @@
         <v>697</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="K133">
         <v>41.032444439999999</v>
@@ -8043,7 +8034,7 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>723</v>
+        <v>779</v>
       </c>
       <c r="B134" t="s">
         <v>588</v>
@@ -8070,7 +8061,7 @@
         <v>698</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="K134">
         <v>40.893113890000002</v>
@@ -8081,7 +8072,7 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>723</v>
+        <v>779</v>
       </c>
       <c r="B135" t="s">
         <v>589</v>
@@ -8108,7 +8099,7 @@
         <v>699</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="K135">
         <v>41.01569722</v>
@@ -8119,7 +8110,7 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="B136" t="s">
         <v>590</v>
@@ -8146,7 +8137,7 @@
         <v>700</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="K136">
         <v>39.94777732</v>
@@ -8157,7 +8148,7 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="B137" t="s">
         <v>591</v>
@@ -8184,7 +8175,7 @@
         <v>701</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="K137">
         <v>39.985005569999998</v>
@@ -8195,7 +8186,7 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>723</v>
+        <v>779</v>
       </c>
       <c r="B138" t="s">
         <v>592</v>
@@ -8222,7 +8213,7 @@
         <v>702</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="K138">
         <v>40.120006940000003</v>
@@ -8233,7 +8224,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="B139" t="s">
         <v>593</v>
@@ -8260,7 +8251,7 @@
         <v>703</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="K139">
         <v>39.769849219999998</v>
@@ -8271,7 +8262,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="B140" t="s">
         <v>594</v>
@@ -8298,7 +8289,7 @@
         <v>704</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="K140">
         <v>39.899249439999998</v>
@@ -8309,7 +8300,7 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="B141" t="s">
         <v>595</v>
@@ -8336,7 +8327,7 @@
         <v>705</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="K141">
         <v>39.139068760000001</v>
@@ -8347,7 +8338,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="B142" t="s">
         <v>596</v>
@@ -8374,7 +8365,7 @@
         <v>706</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="K142">
         <v>39.031109000000001</v>
@@ -8385,7 +8376,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="B143" t="s">
         <v>597</v>
@@ -8412,7 +8403,7 @@
         <v>707</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="K143">
         <v>39.681924049999999</v>
@@ -8423,7 +8414,7 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="B144" t="s">
         <v>598</v>
@@ -8450,7 +8441,7 @@
         <v>708</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="K144">
         <v>39.062654530000003</v>
@@ -8461,7 +8452,7 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="B145" t="s">
         <v>599</v>
@@ -8488,7 +8479,7 @@
         <v>709</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="K145">
         <v>39.238330240000003</v>
@@ -8499,7 +8490,7 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="B146" t="s">
         <v>600</v>
@@ -8526,7 +8517,7 @@
         <v>710</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="K146">
         <v>39.099380029999999</v>
@@ -8537,7 +8528,7 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="B147" t="s">
         <v>601</v>
@@ -8564,7 +8555,7 @@
         <v>711</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="K147">
         <v>39.116327339999998</v>
@@ -8575,7 +8566,7 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>726</v>
+        <v>781</v>
       </c>
       <c r="B148" t="s">
         <v>602</v>
@@ -8602,7 +8593,7 @@
         <v>712</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="K148">
         <v>40.309908329999999</v>
@@ -8613,7 +8604,7 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="B149" t="s">
         <v>603</v>
@@ -8640,7 +8631,7 @@
         <v>713</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="K149">
         <v>38.56700524</v>
@@ -8651,7 +8642,7 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="B150" t="s">
         <v>604</v>
@@ -8678,7 +8669,7 @@
         <v>714</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="K150">
         <v>38.710690339999999</v>
@@ -8689,7 +8680,7 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="B151" t="s">
         <v>605</v>
@@ -8716,7 +8707,7 @@
         <v>715</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="K151">
         <v>38.018968280000003</v>
@@ -8727,7 +8718,7 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>726</v>
+        <v>781</v>
       </c>
       <c r="B152" t="s">
         <v>606</v>
@@ -8754,7 +8745,7 @@
         <v>716</v>
       </c>
       <c r="J152" s="5" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="K152">
         <v>37.402369440000001</v>
@@ -8765,7 +8756,7 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>726</v>
+        <v>781</v>
       </c>
       <c r="B153" t="s">
         <v>607</v>
@@ -8792,7 +8783,7 @@
         <v>717</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="K153">
         <v>37.682652779999998</v>
@@ -8803,7 +8794,7 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>726</v>
+        <v>781</v>
       </c>
       <c r="B154" t="s">
         <v>608</v>
@@ -8830,7 +8821,7 @@
         <v>718</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="K154">
         <v>37.750466670000002</v>

--- a/code/paleo_flow/data/sites_annual.xlsx
+++ b/code/paleo_flow/data/sites_annual.xlsx
@@ -2832,10 +2832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L153"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41:J43"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2891,80 +2891,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2">
-        <v>37.688611000000002</v>
-      </c>
-      <c r="L2">
-        <v>-106.459861</v>
-      </c>
-    </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>40.965277999999998</v>
+        <v>37.688611000000002</v>
       </c>
       <c r="L3">
-        <v>-110.852778</v>
+        <v>-106.459861</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2972,37 +2934,37 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>766</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>41.744444000000001</v>
+        <v>40.965277999999998</v>
       </c>
       <c r="L4">
-        <v>-111.78361099999999</v>
+        <v>-110.852778</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3010,7 +2972,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -3034,7 +2996,7 @@
         <v>37</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K5">
         <v>41.744444000000001</v>
@@ -3048,107 +3010,107 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>46</v>
+        <v>767</v>
       </c>
       <c r="K6">
-        <v>40.737222000000003</v>
+        <v>41.744444000000001</v>
       </c>
       <c r="L6">
-        <v>-111.24722199999999</v>
+        <v>-111.78361099999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>50.102899999999998</v>
+        <v>40.737222000000003</v>
       </c>
       <c r="L7">
-        <v>106.90600000000001</v>
+        <v>-111.24722199999999</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>43.019416999999997</v>
+        <v>50.102899999999998</v>
       </c>
       <c r="L8">
-        <v>-110.118611</v>
+        <v>106.90600000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3156,10 +3118,10 @@
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
         <v>58</v>
@@ -3167,26 +3129,26 @@
       <c r="E9" t="s">
         <v>59</v>
       </c>
-      <c r="F9" t="s">
-        <v>65</v>
+      <c r="F9" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K9">
-        <v>43.027056000000002</v>
+        <v>43.019416999999997</v>
       </c>
       <c r="L9">
-        <v>-109.773528</v>
+        <v>-110.118611</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3194,10 +3156,10 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
         <v>58</v>
@@ -3206,25 +3168,25 @@
         <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>72</v>
+      <c r="I10" t="s">
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>42.672499999999999</v>
+        <v>43.027056000000002</v>
       </c>
       <c r="L10">
-        <v>-109.421667</v>
+        <v>-109.773528</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3232,10 +3194,10 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
@@ -3244,25 +3206,25 @@
         <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K11">
-        <v>42.110889</v>
+        <v>42.672499999999999</v>
       </c>
       <c r="L11">
-        <v>-110.709417</v>
+        <v>-109.421667</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3270,10 +3232,10 @@
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
         <v>58</v>
@@ -3282,25 +3244,25 @@
         <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K12">
-        <v>42.095806000000003</v>
+        <v>42.110889</v>
       </c>
       <c r="L12">
-        <v>-110.416083</v>
+        <v>-110.709417</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3308,10 +3270,10 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
         <v>58</v>
@@ -3320,19 +3282,19 @@
         <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K13">
         <v>42.095806000000003</v>
@@ -3346,37 +3308,37 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K14">
-        <v>41.516388999999997</v>
+        <v>42.095806000000003</v>
       </c>
       <c r="L14">
-        <v>-109.44833300000001</v>
+        <v>-110.416083</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3384,19 +3346,19 @@
         <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
         <v>93</v>
@@ -3408,7 +3370,7 @@
         <v>94</v>
       </c>
       <c r="J15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K15">
         <v>41.516388999999997</v>
@@ -3419,13 +3381,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
         <v>58</v>
@@ -3433,26 +3395,26 @@
       <c r="E16" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>100</v>
+      <c r="F16" t="s">
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K16">
-        <v>40.908332999999999</v>
+        <v>41.516388999999997</v>
       </c>
       <c r="L16">
-        <v>-109.422222</v>
+        <v>-109.44833300000001</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3460,75 +3422,75 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
         <v>19</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K17">
-        <v>38.986111000000001</v>
+        <v>40.908332999999999</v>
       </c>
       <c r="L17">
-        <v>-110.15055599999999</v>
+        <v>-109.422222</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" t="s">
-        <v>112</v>
+        <v>91</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H18" t="s">
         <v>19</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K18">
-        <v>40.549016999999999</v>
+        <v>38.986111000000001</v>
       </c>
       <c r="L18">
-        <v>-108.424322</v>
+        <v>-110.15055599999999</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -3536,113 +3498,113 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
         <v>111</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H19" t="s">
         <v>19</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K19">
-        <v>40.502777999999999</v>
+        <v>40.549016999999999</v>
       </c>
       <c r="L19">
-        <v>-108.03277799999999</v>
+        <v>-108.424322</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
         <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H20" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K20">
-        <v>39.978889000000002</v>
+        <v>40.502777999999999</v>
       </c>
       <c r="L20">
-        <v>-109.178056</v>
+        <v>-108.03277799999999</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H21" t="s">
         <v>19</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J21" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K21">
-        <v>39.893028000000001</v>
+        <v>39.978889000000002</v>
       </c>
       <c r="L21">
-        <v>-105.76475000000001</v>
+        <v>-109.178056</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -3650,10 +3612,10 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
         <v>128</v>
@@ -3662,25 +3624,25 @@
         <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H22" t="s">
         <v>19</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K22">
-        <v>40.085278000000002</v>
+        <v>39.893028000000001</v>
       </c>
       <c r="L22">
-        <v>-105.954722</v>
+        <v>-105.76475000000001</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -3688,10 +3650,10 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
         <v>128</v>
@@ -3700,25 +3662,25 @@
         <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H23" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K23">
-        <v>40.145833000000003</v>
+        <v>40.085278000000002</v>
       </c>
       <c r="L23">
-        <v>-105.93944399999999</v>
+        <v>-105.954722</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -3726,10 +3688,10 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
         <v>128</v>
@@ -3738,25 +3700,25 @@
         <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H24" t="s">
         <v>19</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K24">
-        <v>40.120832999999998</v>
+        <v>40.145833000000003</v>
       </c>
       <c r="L24">
-        <v>-105.9</v>
+        <v>-105.93944399999999</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -3764,34 +3726,37 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H25" t="s">
         <v>19</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J25" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K25">
-        <v>40.083333000000003</v>
+        <v>40.120832999999998</v>
       </c>
       <c r="L25">
-        <v>-106.08750000000001</v>
+        <v>-105.9</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -3799,37 +3764,34 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G26" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H26" t="s">
         <v>19</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J26" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K26">
-        <v>39.833888999999999</v>
+        <v>40.083333000000003</v>
       </c>
       <c r="L26">
-        <v>-106.05583300000001</v>
+        <v>-106.08750000000001</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -3837,10 +3799,10 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
         <v>128</v>
@@ -3849,25 +3811,25 @@
         <v>129</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K27">
-        <v>39.613889</v>
+        <v>39.833888999999999</v>
       </c>
       <c r="L27">
-        <v>-106.051389</v>
+        <v>-106.05583300000001</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -3875,10 +3837,10 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
         <v>128</v>
@@ -3887,25 +3849,25 @@
         <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H28" t="s">
         <v>19</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J28" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K28">
-        <v>39.831944</v>
+        <v>39.613889</v>
       </c>
       <c r="L28">
-        <v>-106.222222</v>
+        <v>-106.051389</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -3913,31 +3875,37 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>165</v>
+      </c>
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" t="s">
+        <v>129</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H29" t="s">
         <v>19</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J29" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K29">
-        <v>40.036667000000001</v>
+        <v>39.831944</v>
       </c>
       <c r="L29">
-        <v>-106.43944399999999</v>
+        <v>-106.222222</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -3945,31 +3913,31 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F30" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G30" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H30" t="s">
         <v>19</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J30" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K30">
-        <v>39.543610999999999</v>
+        <v>40.036667000000001</v>
       </c>
       <c r="L30">
-        <v>-107.328889</v>
+        <v>-106.43944399999999</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -3977,37 +3945,31 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="F31" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G31" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H31" t="s">
         <v>19</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J31" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K31">
-        <v>39.549999999999997</v>
+        <v>39.543610999999999</v>
       </c>
       <c r="L31">
-        <v>-107.320278</v>
+        <v>-107.328889</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -4015,10 +3977,10 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
         <v>90</v>
@@ -4026,18 +3988,26 @@
       <c r="E32" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I32" s="3"/>
+      <c r="F32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="J32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K32">
-        <v>38.529167000000001</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="L32">
-        <v>-107.64833299999999</v>
+        <v>-107.320278</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -4045,75 +4015,67 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D33" t="s">
         <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>189</v>
-      </c>
-      <c r="F33" t="s">
-        <v>190</v>
-      </c>
-      <c r="G33" t="s">
-        <v>191</v>
-      </c>
-      <c r="H33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>192</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I33" s="3"/>
       <c r="J33" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K33">
-        <v>38.983333000000002</v>
+        <v>38.529167000000001</v>
       </c>
       <c r="L33">
-        <v>-108.45</v>
+        <v>-107.64833299999999</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D34" t="s">
         <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F34" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H34" t="s">
         <v>19</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J34" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K34">
-        <v>38.797221999999998</v>
+        <v>38.983333000000002</v>
       </c>
       <c r="L34">
-        <v>-109.194444</v>
+        <v>-108.45</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -4121,10 +4083,10 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D35" t="s">
         <v>90</v>
@@ -4133,106 +4095,106 @@
         <v>195</v>
       </c>
       <c r="F35" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G35" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H35" t="s">
         <v>19</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J35" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K35">
-        <v>38.810555999999998</v>
+        <v>38.797221999999998</v>
       </c>
       <c r="L35">
-        <v>-109.292778</v>
+        <v>-109.194444</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>200</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>195</v>
       </c>
       <c r="F36" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G36" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H36" t="s">
         <v>19</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J36" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K36">
-        <v>37.279167000000001</v>
+        <v>38.810555999999998</v>
       </c>
       <c r="L36">
-        <v>-107.879722</v>
+        <v>-109.292778</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
-      </c>
-      <c r="D37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F37" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G37" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H37" t="s">
         <v>19</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J37" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K37">
-        <v>36.801889000000003</v>
+        <v>37.279167000000001</v>
       </c>
       <c r="L37">
-        <v>-107.698639</v>
+        <v>-107.879722</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C38" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D38" t="s">
         <v>90</v>
@@ -4241,63 +4203,63 @@
         <v>195</v>
       </c>
       <c r="F38" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G38" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H38" t="s">
         <v>19</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K38">
-        <v>37.150677999999999</v>
+        <v>36.801889000000003</v>
       </c>
       <c r="L38">
-        <v>-109.86668899999999</v>
+        <v>-107.698639</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C39" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="F39" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G39" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H39" t="s">
         <v>19</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J39" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K39">
-        <v>36.864722</v>
+        <v>37.150677999999999</v>
       </c>
       <c r="L39">
-        <v>-111.58750000000001</v>
+        <v>-109.86668899999999</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -4305,19 +4267,19 @@
         <v>221</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C40" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>223</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="F40" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G40" t="s">
         <v>226</v>
@@ -4329,7 +4291,7 @@
         <v>227</v>
       </c>
       <c r="J40" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K40">
         <v>36.864722</v>
@@ -4340,48 +4302,51 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="B41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D41" t="s">
-        <v>233</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="F41" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G41" t="s">
-        <v>236</v>
+        <v>226</v>
+      </c>
+      <c r="H41" t="s">
+        <v>19</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>781</v>
+        <v>227</v>
+      </c>
+      <c r="J41" t="s">
+        <v>231</v>
       </c>
       <c r="K41">
-        <v>43.857778000000003</v>
+        <v>36.864722</v>
       </c>
       <c r="L41">
-        <v>-110.59</v>
+        <v>-111.58750000000001</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C42" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D42" t="s">
         <v>233</v>
@@ -4390,25 +4355,22 @@
         <v>234</v>
       </c>
       <c r="F42" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G42" t="s">
-        <v>241</v>
-      </c>
-      <c r="H42" t="s">
-        <v>242</v>
-      </c>
-      <c r="I42" t="s">
-        <v>243</v>
+        <v>236</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K42">
-        <v>43.350833000000002</v>
+        <v>43.857778000000003</v>
       </c>
       <c r="L42">
-        <v>-111.218333</v>
+        <v>-110.59</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -4416,10 +4378,10 @@
         <v>238</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C43" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D43" t="s">
         <v>233</v>
@@ -4428,101 +4390,101 @@
         <v>234</v>
       </c>
       <c r="F43" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G43" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H43" t="s">
         <v>242</v>
       </c>
       <c r="I43" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="K43">
-        <v>43.612499999999997</v>
+        <v>43.350833000000002</v>
       </c>
       <c r="L43">
-        <v>-111.66</v>
+        <v>-111.218333</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>251</v>
+        <v>233</v>
+      </c>
+      <c r="E44" t="s">
+        <v>234</v>
       </c>
       <c r="F44" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G44" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="J44" t="s">
-        <v>255</v>
+        <v>242</v>
+      </c>
+      <c r="I44" t="s">
+        <v>247</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>779</v>
       </c>
       <c r="K44">
-        <v>45.608277999999999</v>
+        <v>43.612499999999997</v>
       </c>
       <c r="L44">
-        <v>-121.18991699999999</v>
+        <v>-111.66</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="B45" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C45" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D45" t="s">
-        <v>257</v>
-      </c>
-      <c r="E45" t="s">
-        <v>258</v>
+        <v>250</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="F45" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G45" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H45" t="s">
         <v>19</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="J45" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K45">
-        <v>43.578611000000002</v>
+        <v>45.608277999999999</v>
       </c>
       <c r="L45">
-        <v>-109.75916700000001</v>
+        <v>-121.18991699999999</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -4530,10 +4492,10 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C46" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D46" t="s">
         <v>257</v>
@@ -4542,63 +4504,63 @@
         <v>258</v>
       </c>
       <c r="F46" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G46" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H46" t="s">
         <v>19</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J46" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K46">
-        <v>42.716667000000001</v>
+        <v>43.578611000000002</v>
       </c>
       <c r="L46">
-        <v>-108.64277800000001</v>
+        <v>-109.75916700000001</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C47" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>257</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="F47" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G47" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H47" t="s">
         <v>19</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="J47" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K47">
-        <v>40.664444000000003</v>
+        <v>42.716667000000001</v>
       </c>
       <c r="L47">
-        <v>-105.223889</v>
+        <v>-108.64277800000001</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -4606,10 +4568,10 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C48" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D48" t="s">
         <v>128</v>
@@ -4618,25 +4580,25 @@
         <v>129</v>
       </c>
       <c r="F48" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G48" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H48" t="s">
         <v>19</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J48" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K48">
-        <v>40.421666999999999</v>
+        <v>40.664444000000003</v>
       </c>
       <c r="L48">
-        <v>-105.226111</v>
+        <v>-105.223889</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -4644,10 +4606,10 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C49" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D49" t="s">
         <v>128</v>
@@ -4656,25 +4618,25 @@
         <v>129</v>
       </c>
       <c r="F49" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G49" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H49" t="s">
         <v>19</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="J49" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K49">
-        <v>40.218055999999997</v>
+        <v>40.421666999999999</v>
       </c>
       <c r="L49">
-        <v>-105.259444</v>
+        <v>-105.226111</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -4682,37 +4644,37 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C50" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D50" t="s">
-        <v>284</v>
+        <v>128</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G50" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H50" t="s">
         <v>19</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="J50" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K50">
-        <v>40.006388999999999</v>
+        <v>40.218055999999997</v>
       </c>
       <c r="L50">
-        <v>-105.33027800000001</v>
+        <v>-105.259444</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -4720,10 +4682,10 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C51" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D51" t="s">
         <v>284</v>
@@ -4732,25 +4694,25 @@
         <v>150</v>
       </c>
       <c r="F51" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G51" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H51" t="s">
         <v>19</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="J51" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K51">
-        <v>39.931111000000001</v>
+        <v>40.006388999999999</v>
       </c>
       <c r="L51">
-        <v>-105.295278</v>
+        <v>-105.33027800000001</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -4758,37 +4720,37 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C52" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D52" t="s">
         <v>284</v>
       </c>
       <c r="E52" t="s">
-        <v>295</v>
+        <v>150</v>
       </c>
       <c r="F52" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G52" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H52" t="s">
         <v>19</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="J52" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K52">
-        <v>39.753056000000001</v>
+        <v>39.931111000000001</v>
       </c>
       <c r="L52">
-        <v>-105.234722</v>
+        <v>-105.295278</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -4796,37 +4758,37 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C53" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D53" t="s">
-        <v>128</v>
+        <v>284</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
+        <v>295</v>
       </c>
       <c r="F53" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G53" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H53" t="s">
         <v>19</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="J53" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K53">
-        <v>39.408889000000002</v>
+        <v>39.753056000000001</v>
       </c>
       <c r="L53">
-        <v>-105.17527800000001</v>
+        <v>-105.234722</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -4834,10 +4796,10 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C54" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D54" t="s">
         <v>128</v>
@@ -4846,25 +4808,25 @@
         <v>129</v>
       </c>
       <c r="F54" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G54" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H54" t="s">
         <v>19</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="J54" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K54">
-        <v>39.409166999999997</v>
+        <v>39.408889000000002</v>
       </c>
       <c r="L54">
-        <v>-105.169444</v>
+        <v>-105.17527800000001</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -4872,10 +4834,10 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C55" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D55" t="s">
         <v>128</v>
@@ -4884,54 +4846,63 @@
         <v>129</v>
       </c>
       <c r="F55" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G55" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H55" t="s">
         <v>19</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="J55" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K55">
-        <v>39.209167000000001</v>
+        <v>39.409166999999997</v>
       </c>
       <c r="L55">
-        <v>-105.267222</v>
+        <v>-105.169444</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C56" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D56" t="s">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="E56" t="s">
-        <v>318</v>
+        <v>129</v>
       </c>
       <c r="F56" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G56" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H56" t="s">
-        <v>321</v>
+        <v>19</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="J56" t="s">
-        <v>322</v>
+        <v>314</v>
+      </c>
+      <c r="K56">
+        <v>39.209167000000001</v>
+      </c>
+      <c r="L56">
+        <v>-105.267222</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -4939,19 +4910,19 @@
         <v>315</v>
       </c>
       <c r="B57" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C57" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D57" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E57" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F57" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G57" t="s">
         <v>320</v>
@@ -4960,7 +4931,7 @@
         <v>321</v>
       </c>
       <c r="J57" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -4968,37 +4939,28 @@
         <v>315</v>
       </c>
       <c r="B58" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C58" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D58" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E58" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F58" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G58" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H58" t="s">
         <v>321</v>
       </c>
-      <c r="I58" t="s">
-        <v>331</v>
-      </c>
       <c r="J58" t="s">
-        <v>332</v>
-      </c>
-      <c r="K58">
-        <v>39.521999999999998</v>
-      </c>
-      <c r="L58">
-        <v>-121.547</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -5006,19 +4968,19 @@
         <v>315</v>
       </c>
       <c r="B59" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C59" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D59" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E59" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F59" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G59" t="s">
         <v>330</v>
@@ -5030,7 +4992,7 @@
         <v>331</v>
       </c>
       <c r="J59" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K59">
         <v>39.521999999999998</v>
@@ -5044,113 +5006,113 @@
         <v>315</v>
       </c>
       <c r="B60" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C60" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D60" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="E60" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="F60" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G60" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>341</v>
+        <v>321</v>
+      </c>
+      <c r="I60" t="s">
+        <v>331</v>
       </c>
       <c r="J60" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K60">
-        <v>35.628610999999999</v>
+        <v>39.521999999999998</v>
       </c>
       <c r="L60">
-        <v>-120.683333</v>
+        <v>-121.547</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="B61" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C61" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D61" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E61" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F61" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G61" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H61" t="s">
         <v>19</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="J61" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="K61">
-        <v>42.133333</v>
+        <v>35.628610999999999</v>
       </c>
       <c r="L61">
-        <v>-121.961111</v>
+        <v>-120.683333</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="B62" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C62" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D62" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="E62" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="F62" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G62" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H62" t="s">
         <v>19</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="J62" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K62">
-        <v>40.724722</v>
+        <v>42.133333</v>
       </c>
       <c r="L62">
-        <v>-122.80111100000001</v>
+        <v>-121.961111</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -5158,10 +5120,10 @@
         <v>315</v>
       </c>
       <c r="B63" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C63" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D63" t="s">
         <v>317</v>
@@ -5169,26 +5131,26 @@
       <c r="E63" t="s">
         <v>318</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>356</v>
+      <c r="F63" t="s">
+        <v>351</v>
       </c>
       <c r="G63" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H63" t="s">
-        <v>321</v>
-      </c>
-      <c r="I63" t="s">
-        <v>358</v>
+        <v>19</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="J63" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K63">
-        <v>39.235169999999997</v>
+        <v>40.724722</v>
       </c>
       <c r="L63">
-        <v>-121.27412</v>
+        <v>-122.80111100000001</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -5196,10 +5158,10 @@
         <v>315</v>
       </c>
       <c r="B64" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C64" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D64" t="s">
         <v>317</v>
@@ -5207,26 +5169,26 @@
       <c r="E64" t="s">
         <v>318</v>
       </c>
-      <c r="F64" t="s">
-        <v>361</v>
+      <c r="F64" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="G64" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H64" t="s">
         <v>321</v>
       </c>
       <c r="I64" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="J64" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K64">
-        <v>38.683</v>
+        <v>39.235169999999997</v>
       </c>
       <c r="L64">
-        <v>-121.18300000000001</v>
+        <v>-121.27412</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -5234,10 +5196,10 @@
         <v>315</v>
       </c>
       <c r="B65" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C65" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D65" t="s">
         <v>317</v>
@@ -5246,25 +5208,25 @@
         <v>318</v>
       </c>
       <c r="F65" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G65" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H65" t="s">
         <v>321</v>
       </c>
       <c r="I65" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J65" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K65">
-        <v>40.289000000000001</v>
+        <v>38.683</v>
       </c>
       <c r="L65">
-        <v>-122.18600000000001</v>
+        <v>-121.18300000000001</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -5272,10 +5234,10 @@
         <v>315</v>
       </c>
       <c r="B66" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C66" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D66" t="s">
         <v>317</v>
@@ -5284,25 +5246,25 @@
         <v>318</v>
       </c>
       <c r="F66" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G66" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H66" t="s">
         <v>321</v>
       </c>
       <c r="I66" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="J66" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K66">
-        <v>37.851999999999997</v>
+        <v>40.289000000000001</v>
       </c>
       <c r="L66">
-        <v>-120.637</v>
+        <v>-122.18600000000001</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -5310,10 +5272,10 @@
         <v>315</v>
       </c>
       <c r="B67" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C67" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D67" t="s">
         <v>317</v>
@@ -5322,25 +5284,25 @@
         <v>318</v>
       </c>
       <c r="F67" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G67" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H67" t="s">
         <v>321</v>
       </c>
       <c r="I67" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="J67" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K67">
-        <v>37.665999999999997</v>
+        <v>37.851999999999997</v>
       </c>
       <c r="L67">
-        <v>-120.441</v>
+        <v>-120.637</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -5348,10 +5310,10 @@
         <v>315</v>
       </c>
       <c r="B68" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C68" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D68" t="s">
         <v>317</v>
@@ -5360,25 +5322,25 @@
         <v>318</v>
       </c>
       <c r="F68" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G68" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H68" t="s">
         <v>321</v>
       </c>
       <c r="I68" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="J68" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="K68">
-        <v>37.521999999999998</v>
+        <v>37.665999999999997</v>
       </c>
       <c r="L68">
-        <v>-120.331</v>
+        <v>-120.441</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -5386,10 +5348,10 @@
         <v>315</v>
       </c>
       <c r="B69" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C69" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D69" t="s">
         <v>317</v>
@@ -5398,25 +5360,25 @@
         <v>318</v>
       </c>
       <c r="F69" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G69" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H69" t="s">
         <v>321</v>
       </c>
       <c r="I69" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J69" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K69">
-        <v>36.984394000000002</v>
+        <v>37.521999999999998</v>
       </c>
       <c r="L69">
-        <v>-119.724312</v>
+        <v>-120.331</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -5424,10 +5386,10 @@
         <v>315</v>
       </c>
       <c r="B70" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C70" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D70" t="s">
         <v>317</v>
@@ -5436,48 +5398,54 @@
         <v>318</v>
       </c>
       <c r="F70" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G70" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H70" t="s">
         <v>321</v>
       </c>
+      <c r="I70" t="s">
+        <v>388</v>
+      </c>
       <c r="J70" t="s">
-        <v>393</v>
+        <v>389</v>
+      </c>
+      <c r="K70">
+        <v>36.984394000000002</v>
+      </c>
+      <c r="L70">
+        <v>-119.724312</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="B71" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C71" t="s">
-        <v>394</v>
+        <v>390</v>
+      </c>
+      <c r="D71" t="s">
+        <v>317</v>
+      </c>
+      <c r="E71" t="s">
+        <v>318</v>
       </c>
       <c r="F71" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G71" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H71" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>397</v>
+        <v>321</v>
       </c>
       <c r="J71" t="s">
-        <v>398</v>
-      </c>
-      <c r="K71">
-        <v>32.868333</v>
-      </c>
-      <c r="L71">
-        <v>-109.51055599999999</v>
+        <v>393</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -5485,31 +5453,31 @@
         <v>221</v>
       </c>
       <c r="B72" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C72" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F72" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G72" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H72" t="s">
         <v>19</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J72" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K72">
-        <v>33.979999999999997</v>
+        <v>32.868333</v>
       </c>
       <c r="L72">
-        <v>-111.302778</v>
+        <v>-109.51055599999999</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -5517,31 +5485,31 @@
         <v>221</v>
       </c>
       <c r="B73" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C73" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F73" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G73" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H73" t="s">
         <v>19</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="J73" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K73">
-        <v>33.619444000000001</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="L73">
-        <v>-110.920833</v>
+        <v>-111.302778</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -5549,69 +5517,63 @@
         <v>221</v>
       </c>
       <c r="B74" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C74" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F74" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G74" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H74" t="s">
         <v>19</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J74" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K74">
-        <v>34.073056000000001</v>
+        <v>33.619444000000001</v>
       </c>
       <c r="L74">
-        <v>-111.71555600000001</v>
+        <v>-110.920833</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="B75" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C75" t="s">
-        <v>414</v>
-      </c>
-      <c r="D75" t="s">
-        <v>415</v>
-      </c>
-      <c r="E75" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F75" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G75" t="s">
-        <v>18</v>
+        <v>411</v>
       </c>
       <c r="H75" t="s">
         <v>19</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J75" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K75">
-        <v>37.688611000000002</v>
+        <v>34.073056000000001</v>
       </c>
       <c r="L75">
-        <v>-106.459861</v>
+        <v>-111.71555600000001</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -5619,31 +5581,37 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C76" t="s">
-        <v>420</v>
+        <v>414</v>
+      </c>
+      <c r="D76" t="s">
+        <v>415</v>
+      </c>
+      <c r="E76" t="s">
+        <v>416</v>
       </c>
       <c r="F76" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G76" t="s">
-        <v>422</v>
+        <v>18</v>
       </c>
       <c r="H76" t="s">
         <v>19</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="J76" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K76">
-        <v>38.163333000000002</v>
+        <v>37.688611000000002</v>
       </c>
       <c r="L76">
-        <v>-106.29</v>
+        <v>-106.459861</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -5651,31 +5619,31 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C77" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F77" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G77" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H77" t="s">
         <v>19</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="J77" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K77">
-        <v>37.374721999999998</v>
+        <v>38.163333000000002</v>
       </c>
       <c r="L77">
-        <v>-106.33416699999999</v>
+        <v>-106.29</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -5683,63 +5651,63 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C78" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F78" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G78" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H78" t="s">
         <v>19</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="J78" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K78">
-        <v>37.053888999999998</v>
+        <v>37.374721999999998</v>
       </c>
       <c r="L78">
-        <v>-106.186944</v>
+        <v>-106.33416699999999</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C79" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F79" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G79" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H79" t="s">
         <v>19</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J79" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K79">
-        <v>35.874499999999998</v>
+        <v>37.053888999999998</v>
       </c>
       <c r="L79">
-        <v>-106.142444</v>
+        <v>-106.186944</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -5747,13 +5715,13 @@
         <v>210</v>
       </c>
       <c r="B80" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C80" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F80" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G80" t="s">
         <v>437</v>
@@ -5765,7 +5733,7 @@
         <v>438</v>
       </c>
       <c r="J80" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K80">
         <v>35.874499999999998</v>
@@ -5779,13 +5747,13 @@
         <v>210</v>
       </c>
       <c r="B81" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C81" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F81" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G81" t="s">
         <v>437</v>
@@ -5797,7 +5765,7 @@
         <v>438</v>
       </c>
       <c r="J81" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K81">
         <v>35.874499999999998</v>
@@ -5811,37 +5779,31 @@
         <v>210</v>
       </c>
       <c r="B82" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C82" t="s">
-        <v>446</v>
-      </c>
-      <c r="D82" t="s">
-        <v>447</v>
-      </c>
-      <c r="E82" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F82" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G82" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="H82" t="s">
         <v>19</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="J82" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="K82">
-        <v>35.686444000000002</v>
+        <v>35.874499999999998</v>
       </c>
       <c r="L82">
-        <v>-105.843611</v>
+        <v>-106.142444</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -5849,10 +5811,10 @@
         <v>210</v>
       </c>
       <c r="B83" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C83" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D83" t="s">
         <v>447</v>
@@ -5861,7 +5823,7 @@
         <v>448</v>
       </c>
       <c r="F83" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G83" t="s">
         <v>450</v>
@@ -5873,7 +5835,7 @@
         <v>451</v>
       </c>
       <c r="J83" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K83">
         <v>35.686444000000002</v>
@@ -5884,34 +5846,40 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="B84" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C84" t="s">
-        <v>456</v>
+        <v>453</v>
+      </c>
+      <c r="D84" t="s">
+        <v>447</v>
+      </c>
+      <c r="E84" t="s">
+        <v>448</v>
       </c>
       <c r="F84" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G84" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H84" t="s">
         <v>19</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="J84" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K84">
-        <v>38.433889000000001</v>
+        <v>35.686444000000002</v>
       </c>
       <c r="L84">
-        <v>-105.25666699999999</v>
+        <v>-105.843611</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -5919,13 +5887,13 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C85" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F85" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G85" t="s">
         <v>458</v>
@@ -5937,7 +5905,7 @@
         <v>459</v>
       </c>
       <c r="J85" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K85">
         <v>38.433889000000001</v>
@@ -5948,165 +5916,174 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C86" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F86" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G86" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H86" t="s">
         <v>19</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="J86" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="K86">
-        <v>35.654833000000004</v>
+        <v>38.433889000000001</v>
       </c>
       <c r="L86">
-        <v>-104.37861100000001</v>
+        <v>-105.25666699999999</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="B87" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C87" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F87" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G87" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H87" t="s">
         <v>19</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="J87" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K87">
-        <v>38.545833000000002</v>
+        <v>35.654833000000004</v>
       </c>
       <c r="L87">
-        <v>-106.01</v>
+        <v>-104.37861100000001</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>474</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C88" t="s">
-        <v>475</v>
-      </c>
-      <c r="D88" t="s">
-        <v>476</v>
-      </c>
-      <c r="E88" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F88" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G88" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H88" t="s">
         <v>19</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>776</v>
+        <v>472</v>
+      </c>
+      <c r="J88" t="s">
+        <v>473</v>
       </c>
       <c r="K88">
-        <v>39.273583000000002</v>
+        <v>38.545833000000002</v>
       </c>
       <c r="L88">
-        <v>-77.543110999999996</v>
+        <v>-106.01</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B89" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C89" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D89" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E89" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F89" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G89" t="s">
-        <v>771</v>
+        <v>479</v>
       </c>
       <c r="H89" t="s">
-        <v>769</v>
-      </c>
-      <c r="I89" s="8" t="s">
-        <v>770</v>
+        <v>19</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>480</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>487</v>
+        <v>776</v>
       </c>
       <c r="K89">
-        <v>-19.760000000000002</v>
+        <v>39.273583000000002</v>
       </c>
       <c r="L89">
-        <v>147.24</v>
+        <v>-77.543110999999996</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B90" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C90" t="s">
-        <v>490</v>
+        <v>483</v>
+      </c>
+      <c r="D90" t="s">
+        <v>484</v>
+      </c>
+      <c r="E90" t="s">
+        <v>485</v>
+      </c>
+      <c r="F90" t="s">
+        <v>486</v>
       </c>
       <c r="G90" t="s">
-        <v>491</v>
+        <v>771</v>
+      </c>
+      <c r="H90" t="s">
+        <v>769</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>770</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="K90">
-        <v>-35.1</v>
+        <v>-19.760000000000002</v>
       </c>
       <c r="L90">
-        <v>-69.599999999999994</v>
+        <v>147.24</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -6114,19 +6091,22 @@
         <v>488</v>
       </c>
       <c r="B91" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C91" t="s">
-        <v>494</v>
+        <v>490</v>
+      </c>
+      <c r="G91" t="s">
+        <v>491</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K91">
-        <v>-40</v>
+        <v>-35.1</v>
       </c>
       <c r="L91">
-        <v>-70</v>
+        <v>-69.599999999999994</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -6134,153 +6114,135 @@
         <v>488</v>
       </c>
       <c r="B92" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C92" t="s">
-        <v>497</v>
-      </c>
-      <c r="G92" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K92">
-        <v>-38.531944000000003</v>
+        <v>-40</v>
       </c>
       <c r="L92">
-        <v>-69.413611000000003</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>488</v>
       </c>
       <c r="B93" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C93" t="s">
-        <v>501</v>
-      </c>
-      <c r="D93" t="s">
-        <v>502</v>
-      </c>
-      <c r="E93" t="s">
-        <v>503</v>
-      </c>
-      <c r="F93" t="s">
-        <v>504</v>
+        <v>497</v>
+      </c>
+      <c r="G93" t="s">
+        <v>498</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>768</v>
+        <v>499</v>
       </c>
       <c r="K93">
-        <v>47.312100000000001</v>
+        <v>-38.531944000000003</v>
       </c>
       <c r="L93">
-        <v>110.6644</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-69.413611000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>47</v>
       </c>
       <c r="B94" t="s">
+        <v>500</v>
+      </c>
+      <c r="C94" t="s">
+        <v>501</v>
+      </c>
+      <c r="D94" t="s">
+        <v>502</v>
+      </c>
+      <c r="E94" t="s">
+        <v>503</v>
+      </c>
+      <c r="F94" t="s">
+        <v>504</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="K94">
+        <v>47.312100000000001</v>
+      </c>
+      <c r="L94">
+        <v>110.6644</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" t="s">
         <v>505</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>506</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>507</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F95" t="s">
         <v>509</v>
       </c>
-      <c r="J94" s="7" t="s">
+      <c r="J95" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="K94">
+      <c r="K95">
         <v>49.233333000000002</v>
       </c>
-      <c r="L94">
+      <c r="L95">
         <v>101.35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>511</v>
-      </c>
-      <c r="B95" t="s">
-        <v>512</v>
-      </c>
-      <c r="C95" t="s">
-        <v>775</v>
-      </c>
-      <c r="D95" t="s">
-        <v>513</v>
-      </c>
-      <c r="E95" t="s">
-        <v>514</v>
-      </c>
-      <c r="G95" t="s">
-        <v>774</v>
-      </c>
-      <c r="H95" t="s">
-        <v>773</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="K95">
-        <v>-42.790277779999997</v>
-      </c>
-      <c r="L95">
-        <v>172.54138889000001</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B96" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C96" t="s">
-        <v>518</v>
+        <v>775</v>
       </c>
       <c r="D96" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="E96" t="s">
-        <v>520</v>
-      </c>
-      <c r="F96" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="G96" t="s">
-        <v>522</v>
+        <v>774</v>
       </c>
       <c r="H96" t="s">
-        <v>19</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>523</v>
+        <v>773</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>772</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>777</v>
+        <v>515</v>
       </c>
       <c r="K96">
-        <v>34.686</v>
+        <v>-42.790277779999997</v>
       </c>
       <c r="L96">
-        <v>-91.315399999999997</v>
+        <v>172.54138889000001</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -6288,19 +6250,19 @@
         <v>516</v>
       </c>
       <c r="B97" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C97" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D97" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="E97" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F97" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G97" t="s">
         <v>522</v>
@@ -6312,9 +6274,9 @@
         <v>523</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="K97" s="5">
+        <v>777</v>
+      </c>
+      <c r="K97">
         <v>34.686</v>
       </c>
       <c r="L97">
@@ -6323,75 +6285,75 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="B98" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C98" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D98" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E98" t="s">
-        <v>533</v>
+        <v>527</v>
+      </c>
+      <c r="F98" t="s">
+        <v>528</v>
       </c>
       <c r="G98" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="H98" t="s">
         <v>19</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="K98">
-        <v>45.112119</v>
+        <v>778</v>
+      </c>
+      <c r="K98" s="5">
+        <v>34.686</v>
       </c>
       <c r="L98">
-        <v>-110.793667</v>
+        <v>-91.315399999999997</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>55</v>
+        <v>529</v>
       </c>
       <c r="B99" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C99" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D99" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E99" t="s">
-        <v>540</v>
-      </c>
-      <c r="F99" t="s">
-        <v>541</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>542</v>
+        <v>533</v>
+      </c>
+      <c r="G99" t="s">
+        <v>534</v>
       </c>
       <c r="H99" t="s">
         <v>19</v>
       </c>
-      <c r="I99" t="s">
-        <v>543</v>
-      </c>
-      <c r="J99" s="9" t="s">
-        <v>544</v>
+      <c r="I99" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>536</v>
       </c>
       <c r="K99">
-        <v>44.508019529999999</v>
+        <v>45.112119</v>
       </c>
       <c r="L99">
-        <v>-107.4036886</v>
+        <v>-110.793667</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -6399,7 +6361,7 @@
         <v>55</v>
       </c>
       <c r="B100" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C100" t="s">
         <v>538</v>
@@ -6414,30 +6376,30 @@
         <v>541</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H100" t="s">
         <v>19</v>
       </c>
       <c r="I100" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K100">
-        <v>44.20828238</v>
+        <v>44.508019529999999</v>
       </c>
       <c r="L100">
-        <v>-109.5548879</v>
+        <v>-107.4036886</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>529</v>
+        <v>55</v>
       </c>
       <c r="B101" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C101" t="s">
         <v>538</v>
@@ -6452,30 +6414,30 @@
         <v>541</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H101" t="s">
         <v>19</v>
       </c>
       <c r="I101" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="K101">
-        <v>45.006909700000001</v>
+        <v>44.20828238</v>
       </c>
       <c r="L101">
-        <v>-107.61509529999999</v>
+        <v>-109.5548879</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>55</v>
+        <v>529</v>
       </c>
       <c r="B102" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C102" t="s">
         <v>538</v>
@@ -6490,22 +6452,22 @@
         <v>541</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H102" t="s">
         <v>19</v>
       </c>
       <c r="I102" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K102">
-        <v>43.577739989999998</v>
+        <v>45.006909700000001</v>
       </c>
       <c r="L102">
-        <v>-107.13839950000001</v>
+        <v>-107.61509529999999</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -6513,7 +6475,7 @@
         <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C103" t="s">
         <v>538</v>
@@ -6528,30 +6490,30 @@
         <v>541</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H103" t="s">
         <v>19</v>
       </c>
       <c r="I103" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K103">
-        <v>44.027742279999998</v>
+        <v>43.577739989999998</v>
       </c>
       <c r="L103">
-        <v>-107.0808955</v>
+        <v>-107.13839950000001</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>561</v>
+        <v>55</v>
       </c>
       <c r="B104" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C104" t="s">
         <v>538</v>
@@ -6566,22 +6528,22 @@
         <v>541</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H104" t="s">
         <v>19</v>
       </c>
       <c r="I104" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="K104">
-        <v>47.78723694</v>
+        <v>44.027742279999998</v>
       </c>
       <c r="L104">
-        <v>-102.7685256</v>
+        <v>-107.0808955</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -6589,7 +6551,7 @@
         <v>561</v>
       </c>
       <c r="B105" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C105" t="s">
         <v>538</v>
@@ -6604,22 +6566,22 @@
         <v>541</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H105" t="s">
         <v>19</v>
       </c>
       <c r="I105" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K105">
-        <v>46.274727800000001</v>
+        <v>47.78723694</v>
       </c>
       <c r="L105">
-        <v>-103.97631920000001</v>
+        <v>-102.7685256</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -6627,7 +6589,7 @@
         <v>561</v>
       </c>
       <c r="B106" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C106" t="s">
         <v>538</v>
@@ -6642,22 +6604,22 @@
         <v>541</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H106" t="s">
         <v>19</v>
       </c>
       <c r="I106" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="K106">
-        <v>47.236125940000001</v>
+        <v>46.274727800000001</v>
       </c>
       <c r="L106">
-        <v>-102.76990739999999</v>
+        <v>-103.97631920000001</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -6665,7 +6627,7 @@
         <v>561</v>
       </c>
       <c r="B107" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C107" t="s">
         <v>538</v>
@@ -6680,22 +6642,22 @@
         <v>541</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H107" t="s">
         <v>19</v>
       </c>
       <c r="I107" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K107">
-        <v>47.027791579999999</v>
+        <v>47.236125940000001</v>
       </c>
       <c r="L107">
-        <v>-103.0532355</v>
+        <v>-102.76990739999999</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -6703,7 +6665,7 @@
         <v>561</v>
       </c>
       <c r="B108" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C108" t="s">
         <v>538</v>
@@ -6718,22 +6680,22 @@
         <v>541</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H108" t="s">
         <v>19</v>
       </c>
       <c r="I108" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="K108">
-        <v>46.426671159999998</v>
+        <v>47.027791579999999</v>
       </c>
       <c r="L108">
-        <v>-102.55183030000001</v>
+        <v>-103.0532355</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -6741,7 +6703,7 @@
         <v>561</v>
       </c>
       <c r="B109" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C109" t="s">
         <v>538</v>
@@ -6756,22 +6718,22 @@
         <v>541</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H109" t="s">
         <v>19</v>
       </c>
       <c r="I109" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="K109">
-        <v>46.15417025</v>
+        <v>46.426671159999998</v>
       </c>
       <c r="L109">
-        <v>-102.4740467</v>
+        <v>-102.55183030000001</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -6779,7 +6741,7 @@
         <v>561</v>
       </c>
       <c r="B110" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C110" t="s">
         <v>538</v>
@@ -6794,22 +6756,22 @@
         <v>541</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H110" t="s">
         <v>19</v>
       </c>
       <c r="I110" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="K110">
-        <v>46.376111109999997</v>
+        <v>46.15417025</v>
       </c>
       <c r="L110">
-        <v>-100.9344444</v>
+        <v>-102.4740467</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -6817,7 +6779,7 @@
         <v>561</v>
       </c>
       <c r="B111" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C111" t="s">
         <v>538</v>
@@ -6832,30 +6794,30 @@
         <v>541</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H111" t="s">
         <v>19</v>
       </c>
       <c r="I111" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="K111">
-        <v>46.257490050000001</v>
+        <v>46.376111109999997</v>
       </c>
       <c r="L111">
-        <v>-100.2331695</v>
+        <v>-100.9344444</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="B112" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C112" t="s">
         <v>538</v>
@@ -6870,22 +6832,22 @@
         <v>541</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H112" t="s">
         <v>19</v>
       </c>
       <c r="I112" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="K112">
-        <v>45.255817120000003</v>
+        <v>46.257490050000001</v>
       </c>
       <c r="L112">
-        <v>-100.84292139999999</v>
+        <v>-100.2331695</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -6893,7 +6855,7 @@
         <v>594</v>
       </c>
       <c r="B113" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C113" t="s">
         <v>538</v>
@@ -6908,22 +6870,22 @@
         <v>541</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H113" t="s">
         <v>19</v>
       </c>
       <c r="I113" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="K113">
-        <v>43.828045860000003</v>
+        <v>45.255817120000003</v>
       </c>
       <c r="L113">
-        <v>-103.1960211</v>
+        <v>-100.84292139999999</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -6931,7 +6893,7 @@
         <v>594</v>
       </c>
       <c r="B114" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C114" t="s">
         <v>538</v>
@@ -6946,22 +6908,22 @@
         <v>541</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H114" t="s">
         <v>19</v>
       </c>
       <c r="I114" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="K114">
-        <v>44.013592379999999</v>
+        <v>43.828045860000003</v>
       </c>
       <c r="L114">
-        <v>-103.8304784</v>
+        <v>-103.1960211</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -6969,7 +6931,7 @@
         <v>594</v>
       </c>
       <c r="B115" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C115" t="s">
         <v>538</v>
@@ -6984,22 +6946,22 @@
         <v>541</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H115" t="s">
         <v>19</v>
       </c>
       <c r="I115" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K115">
-        <v>44.326648970000001</v>
+        <v>44.013592379999999</v>
       </c>
       <c r="L115">
-        <v>-100.38430030000001</v>
+        <v>-103.8304784</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -7007,7 +6969,7 @@
         <v>594</v>
       </c>
       <c r="B116" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C116" t="s">
         <v>538</v>
@@ -7022,22 +6984,22 @@
         <v>541</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H116" t="s">
         <v>19</v>
       </c>
       <c r="I116" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="K116">
-        <v>43.752494910000003</v>
+        <v>44.326648970000001</v>
       </c>
       <c r="L116">
-        <v>-101.5248665</v>
+        <v>-100.38430030000001</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -7045,7 +7007,7 @@
         <v>594</v>
       </c>
       <c r="B117" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C117" t="s">
         <v>538</v>
@@ -7060,22 +7022,22 @@
         <v>541</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H117" t="s">
         <v>19</v>
       </c>
       <c r="I117" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="K117">
-        <v>43.601385489999998</v>
+        <v>43.752494910000003</v>
       </c>
       <c r="L117">
-        <v>-100.74986079999999</v>
+        <v>-101.5248665</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -7083,7 +7045,7 @@
         <v>594</v>
       </c>
       <c r="B118" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C118" t="s">
         <v>538</v>
@@ -7098,30 +7060,30 @@
         <v>541</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H118" t="s">
         <v>19</v>
       </c>
       <c r="I118" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="K118">
-        <v>43.748327449999998</v>
+        <v>43.601385489999998</v>
       </c>
       <c r="L118">
-        <v>-99.556494799999996</v>
+        <v>-100.74986079999999</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="B119" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C119" t="s">
         <v>538</v>
@@ -7136,22 +7098,22 @@
         <v>541</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H119" t="s">
         <v>19</v>
       </c>
       <c r="I119" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K119">
-        <v>42.943036110000001</v>
+        <v>43.748327449999998</v>
       </c>
       <c r="L119">
-        <v>-98.840547220000005</v>
+        <v>-99.556494799999996</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -7159,7 +7121,7 @@
         <v>623</v>
       </c>
       <c r="B120" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C120" t="s">
         <v>538</v>
@@ -7174,22 +7136,22 @@
         <v>541</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="H120" t="s">
         <v>19</v>
       </c>
       <c r="I120" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="K120">
-        <v>42.810994440000002</v>
+        <v>42.943036110000001</v>
       </c>
       <c r="L120">
-        <v>-98.175858329999997</v>
+        <v>-98.840547220000005</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -7197,7 +7159,7 @@
         <v>623</v>
       </c>
       <c r="B121" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C121" t="s">
         <v>538</v>
@@ -7212,30 +7174,30 @@
         <v>541</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H121" t="s">
         <v>19</v>
       </c>
       <c r="I121" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="K121">
-        <v>42.753610799999997</v>
+        <v>42.810994440000002</v>
       </c>
       <c r="L121">
-        <v>-99.864008299999995</v>
+        <v>-98.175858329999997</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>561</v>
+        <v>623</v>
       </c>
       <c r="B122" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C122" t="s">
         <v>538</v>
@@ -7250,30 +7212,30 @@
         <v>541</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H122" t="s">
         <v>19</v>
       </c>
       <c r="I122" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="K122">
-        <v>45.938861559999999</v>
+        <v>42.753610799999997</v>
       </c>
       <c r="L122">
-        <v>-98.452600439999998</v>
+        <v>-99.864008299999995</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="B123" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C123" t="s">
         <v>538</v>
@@ -7288,22 +7250,22 @@
         <v>541</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H123" t="s">
         <v>19</v>
       </c>
       <c r="I123" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="K123">
-        <v>43.776400000000002</v>
+        <v>45.938861559999999</v>
       </c>
       <c r="L123">
-        <v>-98.245672220000003</v>
+        <v>-98.452600439999998</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -7311,7 +7273,7 @@
         <v>594</v>
       </c>
       <c r="B124" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C124" t="s">
         <v>538</v>
@@ -7326,22 +7288,22 @@
         <v>541</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H124" t="s">
         <v>19</v>
       </c>
       <c r="I124" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="K124">
-        <v>43.794144369999998</v>
+        <v>43.776400000000002</v>
       </c>
       <c r="L124">
-        <v>-97.367564099999996</v>
+        <v>-98.245672220000003</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -7349,7 +7311,7 @@
         <v>594</v>
       </c>
       <c r="B125" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C125" t="s">
         <v>538</v>
@@ -7364,30 +7326,30 @@
         <v>541</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="H125" t="s">
         <v>19</v>
       </c>
       <c r="I125" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="K125">
-        <v>45.006075299999999</v>
+        <v>43.794144369999998</v>
       </c>
       <c r="L125">
-        <v>-97.165075599999994</v>
+        <v>-97.367564099999996</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="B126" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C126" t="s">
         <v>538</v>
@@ -7402,30 +7364,30 @@
         <v>541</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="H126" t="s">
         <v>19</v>
       </c>
       <c r="I126" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="K126">
-        <v>42.321580560000001</v>
+        <v>45.006075299999999</v>
       </c>
       <c r="L126">
-        <v>-96.487683329999996</v>
+        <v>-97.165075599999994</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>623</v>
       </c>
       <c r="B127" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C127" t="s">
         <v>538</v>
@@ -7440,30 +7402,30 @@
         <v>541</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H127" t="s">
         <v>19</v>
       </c>
       <c r="I127" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="K127">
-        <v>40.49609409</v>
+        <v>42.321580560000001</v>
       </c>
       <c r="L127">
-        <v>-105.86501199999999</v>
+        <v>-96.487683329999996</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C128" t="s">
         <v>538</v>
@@ -7478,22 +7440,22 @@
         <v>541</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="H128" t="s">
         <v>19</v>
       </c>
       <c r="I128" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K128">
-        <v>41.370244710000001</v>
+        <v>40.49609409</v>
       </c>
       <c r="L128">
-        <v>-106.52058150000001</v>
+        <v>-105.86501199999999</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -7501,7 +7463,7 @@
         <v>55</v>
       </c>
       <c r="B129" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C129" t="s">
         <v>538</v>
@@ -7516,30 +7478,30 @@
         <v>541</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="H129" t="s">
         <v>19</v>
       </c>
       <c r="I129" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="K129">
-        <v>41.585245489999998</v>
+        <v>41.370244710000001</v>
       </c>
       <c r="L129">
-        <v>-106.22279090000001</v>
+        <v>-106.52058150000001</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>623</v>
+        <v>55</v>
       </c>
       <c r="B130" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C130" t="s">
         <v>538</v>
@@ -7554,22 +7516,22 @@
         <v>541</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H130" t="s">
         <v>19</v>
       </c>
       <c r="I130" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="K130">
-        <v>41.831244439999999</v>
+        <v>41.585245489999998</v>
       </c>
       <c r="L130">
-        <v>-100.1007778</v>
+        <v>-106.22279090000001</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -7577,7 +7539,7 @@
         <v>623</v>
       </c>
       <c r="B131" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C131" t="s">
         <v>538</v>
@@ -7592,22 +7554,22 @@
         <v>541</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="H131" t="s">
         <v>19</v>
       </c>
       <c r="I131" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K131">
-        <v>41.037952779999998</v>
+        <v>41.831244439999999</v>
       </c>
       <c r="L131">
-        <v>-98.99278056</v>
+        <v>-100.1007778</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -7615,7 +7577,7 @@
         <v>623</v>
       </c>
       <c r="B132" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C132" t="s">
         <v>538</v>
@@ -7630,22 +7592,22 @@
         <v>541</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="H132" t="s">
         <v>19</v>
       </c>
       <c r="I132" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="K132">
-        <v>41.032444439999999</v>
+        <v>41.037952779999998</v>
       </c>
       <c r="L132">
-        <v>-98.740533330000005</v>
+        <v>-98.99278056</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -7653,7 +7615,7 @@
         <v>623</v>
       </c>
       <c r="B133" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C133" t="s">
         <v>538</v>
@@ -7668,22 +7630,22 @@
         <v>541</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="H133" t="s">
         <v>19</v>
       </c>
       <c r="I133" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="K133">
-        <v>40.893113890000002</v>
+        <v>41.032444439999999</v>
       </c>
       <c r="L133">
-        <v>-96.681552780000004</v>
+        <v>-98.740533330000005</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -7691,7 +7653,7 @@
         <v>623</v>
       </c>
       <c r="B134" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C134" t="s">
         <v>538</v>
@@ -7706,30 +7668,30 @@
         <v>541</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H134" t="s">
         <v>19</v>
       </c>
       <c r="I134" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="K134">
-        <v>41.01569722</v>
+        <v>40.893113890000002</v>
       </c>
       <c r="L134">
-        <v>-96.544283329999999</v>
+        <v>-96.681552780000004</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>688</v>
+        <v>623</v>
       </c>
       <c r="B135" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C135" t="s">
         <v>538</v>
@@ -7744,22 +7706,22 @@
         <v>541</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H135" t="s">
         <v>19</v>
       </c>
       <c r="I135" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="K135">
-        <v>39.94777732</v>
+        <v>41.01569722</v>
       </c>
       <c r="L135">
-        <v>-96.108614919999994</v>
+        <v>-96.544283329999999</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -7767,7 +7729,7 @@
         <v>688</v>
       </c>
       <c r="B136" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C136" t="s">
         <v>538</v>
@@ -7782,30 +7744,30 @@
         <v>541</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H136" t="s">
         <v>19</v>
       </c>
       <c r="I136" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="K136">
-        <v>39.985005569999998</v>
+        <v>39.94777732</v>
       </c>
       <c r="L136">
-        <v>-100.560148</v>
+        <v>-96.108614919999994</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>623</v>
+        <v>688</v>
       </c>
       <c r="B137" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C137" t="s">
         <v>538</v>
@@ -7820,30 +7782,30 @@
         <v>541</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H137" t="s">
         <v>19</v>
       </c>
       <c r="I137" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="K137">
-        <v>40.120006940000003</v>
+        <v>39.985005569999998</v>
       </c>
       <c r="L137">
-        <v>-99.893456700000002</v>
+        <v>-100.560148</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>688</v>
+        <v>623</v>
       </c>
       <c r="B138" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C138" t="s">
         <v>538</v>
@@ -7858,22 +7820,22 @@
         <v>541</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H138" t="s">
         <v>19</v>
       </c>
       <c r="I138" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="K138">
-        <v>39.769849219999998</v>
+        <v>40.120006940000003</v>
       </c>
       <c r="L138">
-        <v>-100.10077920000001</v>
+        <v>-99.893456700000002</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -7881,7 +7843,7 @@
         <v>688</v>
       </c>
       <c r="B139" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C139" t="s">
         <v>538</v>
@@ -7896,22 +7858,22 @@
         <v>541</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="H139" t="s">
         <v>19</v>
       </c>
       <c r="I139" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="K139">
-        <v>39.899249439999998</v>
+        <v>39.769849219999998</v>
       </c>
       <c r="L139">
-        <v>-98.250424850000002</v>
+        <v>-100.10077920000001</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -7919,7 +7881,7 @@
         <v>688</v>
       </c>
       <c r="B140" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C140" t="s">
         <v>538</v>
@@ -7934,22 +7896,22 @@
         <v>541</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="H140" t="s">
         <v>19</v>
       </c>
       <c r="I140" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="K140">
-        <v>39.139068760000001</v>
+        <v>39.899249439999998</v>
       </c>
       <c r="L140">
-        <v>-97.83695994</v>
+        <v>-98.250424850000002</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -7957,7 +7919,7 @@
         <v>688</v>
       </c>
       <c r="B141" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C141" t="s">
         <v>538</v>
@@ -7972,22 +7934,22 @@
         <v>541</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H141" t="s">
         <v>19</v>
       </c>
       <c r="I141" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="K141">
-        <v>39.031109000000001</v>
+        <v>39.139068760000001</v>
       </c>
       <c r="L141">
-        <v>-97.040292199999996</v>
+        <v>-97.83695994</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -7995,7 +7957,7 @@
         <v>688</v>
       </c>
       <c r="B142" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C142" t="s">
         <v>538</v>
@@ -8010,22 +7972,22 @@
         <v>541</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H142" t="s">
         <v>19</v>
       </c>
       <c r="I142" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="K142">
-        <v>39.681924049999999</v>
+        <v>39.031109000000001</v>
       </c>
       <c r="L142">
-        <v>-96.44289431</v>
+        <v>-97.040292199999996</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -8033,7 +7995,7 @@
         <v>688</v>
       </c>
       <c r="B143" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C143" t="s">
         <v>538</v>
@@ -8048,22 +8010,22 @@
         <v>541</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="H143" t="s">
         <v>19</v>
       </c>
       <c r="I143" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="K143">
-        <v>39.062654530000003</v>
+        <v>39.681924049999999</v>
       </c>
       <c r="L143">
-        <v>-96.150251789999999</v>
+        <v>-96.44289431</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -8071,7 +8033,7 @@
         <v>688</v>
       </c>
       <c r="B144" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C144" t="s">
         <v>538</v>
@@ -8086,22 +8048,22 @@
         <v>541</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="H144" t="s">
         <v>19</v>
       </c>
       <c r="I144" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="K144">
-        <v>39.238330240000003</v>
+        <v>39.062654530000003</v>
       </c>
       <c r="L144">
-        <v>-95.888599240000005</v>
+        <v>-96.150251789999999</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -8109,7 +8071,7 @@
         <v>688</v>
       </c>
       <c r="B145" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C145" t="s">
         <v>538</v>
@@ -8124,22 +8086,22 @@
         <v>541</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H145" t="s">
         <v>19</v>
       </c>
       <c r="I145" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="K145">
-        <v>39.099380029999999</v>
+        <v>39.238330240000003</v>
       </c>
       <c r="L145">
-        <v>-95.724952259999995</v>
+        <v>-95.888599240000005</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -8147,7 +8109,7 @@
         <v>688</v>
       </c>
       <c r="B146" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C146" t="s">
         <v>538</v>
@@ -8162,30 +8124,30 @@
         <v>541</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H146" t="s">
         <v>19</v>
       </c>
       <c r="I146" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="K146">
-        <v>39.116327339999998</v>
+        <v>39.099380029999999</v>
       </c>
       <c r="L146">
-        <v>-95.01088111</v>
+        <v>-95.724952259999995</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>737</v>
+        <v>688</v>
       </c>
       <c r="B147" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C147" t="s">
         <v>538</v>
@@ -8200,30 +8162,30 @@
         <v>541</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="H147" t="s">
         <v>19</v>
       </c>
       <c r="I147" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="K147">
-        <v>40.309908329999999</v>
+        <v>39.116327339999998</v>
       </c>
       <c r="L147">
-        <v>-93.594919439999998</v>
+        <v>-95.01088111</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>688</v>
+        <v>737</v>
       </c>
       <c r="B148" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C148" t="s">
         <v>538</v>
@@ -8238,22 +8200,22 @@
         <v>541</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="H148" t="s">
         <v>19</v>
       </c>
       <c r="I148" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K148">
-        <v>38.56700524</v>
+        <v>40.309908329999999</v>
       </c>
       <c r="L148">
-        <v>-95.961632059999999</v>
+        <v>-93.594919439999998</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -8261,7 +8223,7 @@
         <v>688</v>
       </c>
       <c r="B149" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C149" t="s">
         <v>538</v>
@@ -8276,22 +8238,22 @@
         <v>541</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="H149" t="s">
         <v>19</v>
       </c>
       <c r="I149" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="K149">
-        <v>38.710690339999999</v>
+        <v>38.56700524</v>
       </c>
       <c r="L149">
-        <v>-95.836028799999994</v>
+        <v>-95.961632059999999</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -8299,7 +8261,7 @@
         <v>688</v>
       </c>
       <c r="B150" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C150" t="s">
         <v>538</v>
@@ -8314,30 +8276,30 @@
         <v>541</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H150" t="s">
         <v>19</v>
       </c>
       <c r="I150" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="K150">
-        <v>38.018968280000003</v>
+        <v>38.710690339999999</v>
       </c>
       <c r="L150">
-        <v>-94.713668290000001</v>
+        <v>-95.836028799999994</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>737</v>
+        <v>688</v>
       </c>
       <c r="B151" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C151" t="s">
         <v>538</v>
@@ -8352,22 +8314,22 @@
         <v>541</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="H151" t="s">
         <v>19</v>
       </c>
       <c r="I151" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="K151">
-        <v>37.402369440000001</v>
+        <v>38.018968280000003</v>
       </c>
       <c r="L151">
-        <v>-93.802027780000003</v>
+        <v>-94.713668290000001</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
@@ -8375,7 +8337,7 @@
         <v>737</v>
       </c>
       <c r="B152" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C152" t="s">
         <v>538</v>
@@ -8390,22 +8352,22 @@
         <v>541</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="H152" t="s">
         <v>19</v>
       </c>
       <c r="I152" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="K152">
-        <v>37.682652779999998</v>
+        <v>37.402369440000001</v>
       </c>
       <c r="L152">
-        <v>-93.370333329999994</v>
+        <v>-93.802027780000003</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -8413,7 +8375,7 @@
         <v>737</v>
       </c>
       <c r="B153" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C153" t="s">
         <v>538</v>
@@ -8428,103 +8390,141 @@
         <v>541</v>
       </c>
       <c r="G153" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="H153" t="s">
+        <v>19</v>
+      </c>
+      <c r="I153" t="s">
+        <v>760</v>
+      </c>
+      <c r="J153" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="K153">
+        <v>37.682652779999998</v>
+      </c>
+      <c r="L153">
+        <v>-93.370333329999994</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>737</v>
+      </c>
+      <c r="B154" t="s">
+        <v>762</v>
+      </c>
+      <c r="C154" t="s">
+        <v>538</v>
+      </c>
+      <c r="D154" t="s">
+        <v>539</v>
+      </c>
+      <c r="E154" t="s">
+        <v>540</v>
+      </c>
+      <c r="F154" t="s">
+        <v>541</v>
+      </c>
+      <c r="G154" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="H153" t="s">
-        <v>19</v>
-      </c>
-      <c r="I153" t="s">
+      <c r="H154" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" t="s">
         <v>764</v>
       </c>
-      <c r="J153" s="9" t="s">
+      <c r="J154" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="K153">
+      <c r="K154">
         <v>37.750466670000002</v>
       </c>
-      <c r="L153">
+      <c r="L154">
         <v>-93.266183330000004</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="F8" r:id="rId6"/>
-    <hyperlink ref="I10" r:id="rId7"/>
-    <hyperlink ref="I11" r:id="rId8"/>
-    <hyperlink ref="I12" r:id="rId9"/>
-    <hyperlink ref="I13" r:id="rId10"/>
-    <hyperlink ref="I14" r:id="rId11"/>
-    <hyperlink ref="I15" r:id="rId12"/>
-    <hyperlink ref="F16" r:id="rId13"/>
-    <hyperlink ref="I16" r:id="rId14"/>
-    <hyperlink ref="I17" r:id="rId15"/>
-    <hyperlink ref="I18" r:id="rId16"/>
-    <hyperlink ref="I19" r:id="rId17"/>
-    <hyperlink ref="I20" r:id="rId18"/>
-    <hyperlink ref="I21" r:id="rId19"/>
-    <hyperlink ref="I22" r:id="rId20"/>
-    <hyperlink ref="I23" r:id="rId21"/>
-    <hyperlink ref="I25" r:id="rId22"/>
-    <hyperlink ref="I26" r:id="rId23"/>
-    <hyperlink ref="I27" r:id="rId24"/>
-    <hyperlink ref="I28" r:id="rId25"/>
-    <hyperlink ref="I29" r:id="rId26"/>
-    <hyperlink ref="I30" r:id="rId27"/>
-    <hyperlink ref="I31" r:id="rId28"/>
-    <hyperlink ref="F32" r:id="rId29"/>
-    <hyperlink ref="I33" r:id="rId30"/>
-    <hyperlink ref="I34" r:id="rId31"/>
-    <hyperlink ref="I35" r:id="rId32"/>
-    <hyperlink ref="I36" r:id="rId33"/>
-    <hyperlink ref="I37" r:id="rId34"/>
-    <hyperlink ref="I38" r:id="rId35"/>
-    <hyperlink ref="I39" r:id="rId36"/>
-    <hyperlink ref="I40" r:id="rId37"/>
-    <hyperlink ref="I41" r:id="rId38"/>
-    <hyperlink ref="I44" r:id="rId39"/>
-    <hyperlink ref="I45" r:id="rId40"/>
-    <hyperlink ref="I46" r:id="rId41"/>
-    <hyperlink ref="I47" r:id="rId42"/>
-    <hyperlink ref="I48" r:id="rId43"/>
-    <hyperlink ref="I49" r:id="rId44"/>
-    <hyperlink ref="I50" r:id="rId45"/>
-    <hyperlink ref="I51" r:id="rId46"/>
-    <hyperlink ref="I52" r:id="rId47"/>
-    <hyperlink ref="I53" r:id="rId48"/>
-    <hyperlink ref="I54" r:id="rId49"/>
-    <hyperlink ref="I55" r:id="rId50"/>
-    <hyperlink ref="I60" r:id="rId51"/>
-    <hyperlink ref="I61" r:id="rId52"/>
-    <hyperlink ref="I62" r:id="rId53"/>
-    <hyperlink ref="F63" r:id="rId54"/>
-    <hyperlink ref="I71" r:id="rId55"/>
-    <hyperlink ref="I72" r:id="rId56"/>
-    <hyperlink ref="I73" r:id="rId57"/>
-    <hyperlink ref="I74" r:id="rId58"/>
-    <hyperlink ref="I75" r:id="rId59"/>
-    <hyperlink ref="I76" r:id="rId60"/>
-    <hyperlink ref="I77" r:id="rId61"/>
-    <hyperlink ref="I78" r:id="rId62"/>
-    <hyperlink ref="I79" r:id="rId63"/>
-    <hyperlink ref="I80" r:id="rId64"/>
-    <hyperlink ref="I81" r:id="rId65"/>
-    <hyperlink ref="I82" r:id="rId66"/>
-    <hyperlink ref="I83" r:id="rId67"/>
-    <hyperlink ref="I84" r:id="rId68"/>
-    <hyperlink ref="I85" r:id="rId69"/>
-    <hyperlink ref="I86" r:id="rId70"/>
-    <hyperlink ref="I87" r:id="rId71"/>
-    <hyperlink ref="I88" r:id="rId72"/>
-    <hyperlink ref="I96" r:id="rId73"/>
-    <hyperlink ref="I97" r:id="rId74"/>
-    <hyperlink ref="I98" r:id="rId75"/>
-    <hyperlink ref="I89" r:id="rId76"/>
-    <hyperlink ref="I95" r:id="rId77"/>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="I5" r:id="rId3"/>
+    <hyperlink ref="I6" r:id="rId4"/>
+    <hyperlink ref="I7" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
+    <hyperlink ref="I11" r:id="rId7"/>
+    <hyperlink ref="I12" r:id="rId8"/>
+    <hyperlink ref="I13" r:id="rId9"/>
+    <hyperlink ref="I14" r:id="rId10"/>
+    <hyperlink ref="I15" r:id="rId11"/>
+    <hyperlink ref="I16" r:id="rId12"/>
+    <hyperlink ref="F17" r:id="rId13"/>
+    <hyperlink ref="I17" r:id="rId14"/>
+    <hyperlink ref="I18" r:id="rId15"/>
+    <hyperlink ref="I19" r:id="rId16"/>
+    <hyperlink ref="I20" r:id="rId17"/>
+    <hyperlink ref="I21" r:id="rId18"/>
+    <hyperlink ref="I22" r:id="rId19"/>
+    <hyperlink ref="I23" r:id="rId20"/>
+    <hyperlink ref="I24" r:id="rId21"/>
+    <hyperlink ref="I26" r:id="rId22"/>
+    <hyperlink ref="I27" r:id="rId23"/>
+    <hyperlink ref="I28" r:id="rId24"/>
+    <hyperlink ref="I29" r:id="rId25"/>
+    <hyperlink ref="I30" r:id="rId26"/>
+    <hyperlink ref="I31" r:id="rId27"/>
+    <hyperlink ref="I32" r:id="rId28"/>
+    <hyperlink ref="F33" r:id="rId29"/>
+    <hyperlink ref="I34" r:id="rId30"/>
+    <hyperlink ref="I35" r:id="rId31"/>
+    <hyperlink ref="I36" r:id="rId32"/>
+    <hyperlink ref="I37" r:id="rId33"/>
+    <hyperlink ref="I38" r:id="rId34"/>
+    <hyperlink ref="I39" r:id="rId35"/>
+    <hyperlink ref="I40" r:id="rId36"/>
+    <hyperlink ref="I41" r:id="rId37"/>
+    <hyperlink ref="I42" r:id="rId38"/>
+    <hyperlink ref="I45" r:id="rId39"/>
+    <hyperlink ref="I46" r:id="rId40"/>
+    <hyperlink ref="I47" r:id="rId41"/>
+    <hyperlink ref="I48" r:id="rId42"/>
+    <hyperlink ref="I49" r:id="rId43"/>
+    <hyperlink ref="I50" r:id="rId44"/>
+    <hyperlink ref="I51" r:id="rId45"/>
+    <hyperlink ref="I52" r:id="rId46"/>
+    <hyperlink ref="I53" r:id="rId47"/>
+    <hyperlink ref="I54" r:id="rId48"/>
+    <hyperlink ref="I55" r:id="rId49"/>
+    <hyperlink ref="I56" r:id="rId50"/>
+    <hyperlink ref="I61" r:id="rId51"/>
+    <hyperlink ref="I62" r:id="rId52"/>
+    <hyperlink ref="I63" r:id="rId53"/>
+    <hyperlink ref="F64" r:id="rId54"/>
+    <hyperlink ref="I72" r:id="rId55"/>
+    <hyperlink ref="I73" r:id="rId56"/>
+    <hyperlink ref="I74" r:id="rId57"/>
+    <hyperlink ref="I75" r:id="rId58"/>
+    <hyperlink ref="I76" r:id="rId59"/>
+    <hyperlink ref="I77" r:id="rId60"/>
+    <hyperlink ref="I78" r:id="rId61"/>
+    <hyperlink ref="I79" r:id="rId62"/>
+    <hyperlink ref="I80" r:id="rId63"/>
+    <hyperlink ref="I81" r:id="rId64"/>
+    <hyperlink ref="I82" r:id="rId65"/>
+    <hyperlink ref="I83" r:id="rId66"/>
+    <hyperlink ref="I84" r:id="rId67"/>
+    <hyperlink ref="I85" r:id="rId68"/>
+    <hyperlink ref="I86" r:id="rId69"/>
+    <hyperlink ref="I87" r:id="rId70"/>
+    <hyperlink ref="I88" r:id="rId71"/>
+    <hyperlink ref="I89" r:id="rId72"/>
+    <hyperlink ref="I97" r:id="rId73"/>
+    <hyperlink ref="I98" r:id="rId74"/>
+    <hyperlink ref="I99" r:id="rId75"/>
+    <hyperlink ref="I90" r:id="rId76"/>
+    <hyperlink ref="I96" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/code/paleo_flow/data/sites_annual.xlsx
+++ b/code/paleo_flow/data/sites_annual.xlsx
@@ -994,7 +994,7 @@
     <t xml:space="preserve">http://www.treeflow.info/content/rio-grande-otowi-bridge-nm-nrcs-flows</t>
   </si>
   <si>
-    <t xml:space="preserve">riograndeotowinrcs..1.</t>
+    <t xml:space="preserve">riograndeotowinrcs</t>
   </si>
   <si>
     <t xml:space="preserve">Rio Grande at Otowi, NM (update)</t>
@@ -1384,7 +1384,7 @@
     <t xml:space="preserve">https://waterdata.usgs.gov/nwis/inventory/?site_no=09306500&amp;agency_cd=USGS</t>
   </si>
   <si>
-    <t xml:space="preserve">white.x</t>
+    <t xml:space="preserve">white</t>
   </si>
   <si>
     <t xml:space="preserve">0.61-0.67</t>
@@ -2840,8 +2840,8 @@
   </sheetPr>
   <dimension ref="A1:W159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E85" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K126" activeCellId="0" sqref="K126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K78" activeCellId="0" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/code/paleo_flow/data/sites_annual.xlsx
+++ b/code/paleo_flow/data/sites_annual.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="862">
   <si>
     <t xml:space="preserve">orig_order</t>
   </si>
@@ -2576,6 +2576,36 @@
   </si>
   <si>
     <t xml:space="preserve">yellowstone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ping River at Nawarat Bridge, Chiang Mai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hung T.T. Nguyen;  Stefano Galelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyen, H. T. T., &amp; Galelli, S. (2018). A Linear Dynamical Systems Approach to Streamflow Reconstruction Reveals History of Regime Shifts in Northern Thailand. Water Resources Research, 54(3), 2057–2077. https://doi.org/10.1002/2017WR022114 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ntthung/ldsr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gauge P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal Irrigation Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hydro-1.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Year (April-March)</t>
   </si>
 </sst>
 </file>
@@ -2838,10 +2868,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W159"/>
+  <dimension ref="A1:W160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K78" activeCellId="0" sqref="K78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A160" activeCellId="0" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11075,6 +11105,47 @@
       </c>
       <c r="M159" s="0" t="n">
         <v>-110.793667</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="F160" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="G160" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="H160" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="I160" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="K160" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="L160" s="0" t="n">
+        <v>18.78766</v>
+      </c>
+      <c r="M160" s="0" t="n">
+        <v>99.00443</v>
+      </c>
+      <c r="N160" s="0" t="s">
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -11162,6 +11233,7 @@
     <hyperlink ref="G154" r:id="rId81" display="https://www.treeflow.info/content/santa-ana-river"/>
     <hyperlink ref="J158" r:id="rId82" display="https://hydrowebportal.niwa.co.nz/Data/DataSet/Summary/Location/65104/DataSet/QR/Master/Interval/Latest"/>
     <hyperlink ref="J159" r:id="rId83" display="https://waterdata.usgs.gov/nwis/inventory/?site_no=06191500&amp;agency_cd=USGS"/>
+    <hyperlink ref="J160" r:id="rId84" display="https://www.hydro-1.net"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/code/paleo_flow/data/sites_annual.xlsx
+++ b/code/paleo_flow/data/sites_annual.xlsx
@@ -2870,8 +2870,8 @@
   </sheetPr>
   <dimension ref="A1:W160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A160" activeCellId="0" sqref="A160"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S21" activeCellId="0" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4040,10 +4040,10 @@
         <v>0.8</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>18.41</v>
+        <v>1.841</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>19.45</v>
+        <v>1.945</v>
       </c>
       <c r="U19" s="0" t="s">
         <v>129</v>
@@ -4093,10 +4093,10 @@
         <v>0.55</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>27.84</v>
+        <v>2.784</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>29.29</v>
+        <v>2.929</v>
       </c>
       <c r="U20" s="0" t="s">
         <v>129</v>
